--- a/WF.EnrolleeApplication.App/WF.EnrolleeApplication.App/doc/Templates/Информация о ходе приема.xlsx
+++ b/WF.EnrolleeApplication.App/WF.EnrolleeApplication.App/doc/Templates/Информация о ходе приема.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\WF.EnrolleeApplication\WF.EnrolleeApplication.App\WF.EnrolleeApplication.App\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Барановичский государственный университет\АИС Абитуриент\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -334,7 +334,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1539,87 +1539,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,9 +1555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1647,18 +1563,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1761,14 +1665,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,24 +1956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2188,6 +2068,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2197,52 +2188,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4124,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4138,114 +4138,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="A1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:17" s="102" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:17" s="74" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="280"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="74">
+      <c r="G4" s="278">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
-      </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="75">
+        <v>43296</v>
+      </c>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="281">
         <f ca="1">NOW()</f>
-        <v>43273.47755462963</v>
-      </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
+        <v>43296.521391203707</v>
+      </c>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
     </row>
     <row r="7" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="142" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="83" t="s">
+      <c r="E8" s="266"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="266"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70" t="s">
+      <c r="K8" s="266"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="260"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="47" t="s">
         <v>7</v>
       </c>
@@ -4273,295 +4273,295 @@
       <c r="L9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="73"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="273"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="184" t="str">
+      <c r="A10" s="150" t="str">
         <f>DATA!C2</f>
         <v>Дневная</v>
       </c>
-      <c r="B10" s="185" t="str">
+      <c r="B10" s="151" t="str">
         <f>DATA!B2</f>
         <v>ИФ</v>
       </c>
-      <c r="C10" s="186" t="str">
+      <c r="C10" s="152" t="str">
         <f>DATA!F2</f>
         <v>ИФ (Технология машиностроения, Информационные системы и технологии) - общий конкурс</v>
       </c>
-      <c r="D10" s="187">
+      <c r="D10" s="153">
         <f>G10+J10</f>
         <v>45</v>
       </c>
-      <c r="E10" s="188">
+      <c r="E10" s="154">
         <f t="shared" ref="E10:F10" si="0">H10+K10</f>
         <v>5</v>
       </c>
-      <c r="F10" s="189">
+      <c r="F10" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="187">
+      <c r="G10" s="153">
         <f>DATA!G2</f>
         <v>36</v>
       </c>
-      <c r="H10" s="188">
+      <c r="H10" s="154">
         <f>DATA!I2</f>
         <v>5</v>
       </c>
-      <c r="I10" s="189">
+      <c r="I10" s="155">
         <f>DATA!K2</f>
         <v>0</v>
       </c>
-      <c r="J10" s="187">
+      <c r="J10" s="153">
         <f>DATA!H2</f>
         <v>9</v>
       </c>
-      <c r="K10" s="188">
+      <c r="K10" s="154">
         <f>DATA!J2</f>
         <v>0</v>
       </c>
-      <c r="L10" s="189">
+      <c r="L10" s="155">
         <f>DATA!L2</f>
         <v>0</v>
       </c>
-      <c r="M10" s="187">
+      <c r="M10" s="153">
         <f>ROUND(IF(G10=0,0,H10/G10),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N10" s="189">
+      <c r="N10" s="155">
         <f>ROUND(IF(J10=0,0,K10/J10),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="178" t="str">
+      <c r="A11" s="144" t="str">
         <f>DATA!C3</f>
         <v>Дневная</v>
       </c>
-      <c r="B11" s="192" t="str">
+      <c r="B11" s="158" t="str">
         <f>DATA!B3</f>
         <v>ИФ</v>
       </c>
-      <c r="C11" s="193" t="str">
+      <c r="C11" s="159" t="str">
         <f>DATA!F3</f>
         <v>Технология машиностроения</v>
       </c>
-      <c r="D11" s="180">
+      <c r="D11" s="146">
         <f t="shared" ref="D11:D13" si="1">G11+J11</f>
         <v>20</v>
       </c>
-      <c r="E11" s="181">
+      <c r="E11" s="147">
         <f t="shared" ref="E11:E13" si="2">H11+K11</f>
         <v>3</v>
       </c>
-      <c r="F11" s="182">
+      <c r="F11" s="148">
         <f t="shared" ref="F11:F13" si="3">I11+L11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="180">
+      <c r="G11" s="146">
         <f>DATA!G3</f>
         <v>16</v>
       </c>
-      <c r="H11" s="181">
+      <c r="H11" s="147">
         <f>DATA!I3</f>
         <v>3</v>
       </c>
-      <c r="I11" s="182">
+      <c r="I11" s="148">
         <f>DATA!K3</f>
         <v>0</v>
       </c>
-      <c r="J11" s="180">
+      <c r="J11" s="146">
         <f>DATA!H3</f>
         <v>4</v>
       </c>
-      <c r="K11" s="181">
+      <c r="K11" s="147">
         <f>DATA!J3</f>
         <v>0</v>
       </c>
-      <c r="L11" s="182">
+      <c r="L11" s="148">
         <f>DATA!L3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="180">
+      <c r="M11" s="146">
         <f t="shared" ref="M11:M13" si="4">ROUND(IF(G11=0,0,H11/G11),2)</f>
         <v>0.19</v>
       </c>
-      <c r="N11" s="182">
+      <c r="N11" s="148">
         <f t="shared" ref="N11:N13" si="5">ROUND(IF(J11=0,0,K11/J11),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="164" t="str">
+      <c r="A12" s="130" t="str">
         <f>DATA!C4</f>
         <v>Дневная</v>
       </c>
-      <c r="B12" s="194" t="str">
+      <c r="B12" s="160" t="str">
         <f>DATA!B4</f>
         <v>ИФ</v>
       </c>
-      <c r="C12" s="195" t="str">
+      <c r="C12" s="161" t="str">
         <f>DATA!F4</f>
         <v>Информационные системы и технологии (по направлениям)</v>
       </c>
-      <c r="D12" s="166">
+      <c r="D12" s="132">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E12" s="167">
+      <c r="E12" s="133">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F12" s="168">
+      <c r="F12" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="166">
+      <c r="G12" s="132">
         <f>DATA!G4</f>
         <v>20</v>
       </c>
-      <c r="H12" s="167">
+      <c r="H12" s="133">
         <f>DATA!I4</f>
         <v>2</v>
       </c>
-      <c r="I12" s="168">
+      <c r="I12" s="134">
         <f>DATA!K4</f>
         <v>0</v>
       </c>
-      <c r="J12" s="166">
+      <c r="J12" s="132">
         <f>DATA!H4</f>
         <v>5</v>
       </c>
-      <c r="K12" s="167">
+      <c r="K12" s="133">
         <f>DATA!J4</f>
         <v>0</v>
       </c>
-      <c r="L12" s="168">
+      <c r="L12" s="134">
         <f>DATA!L4</f>
         <v>0</v>
       </c>
-      <c r="M12" s="166">
+      <c r="M12" s="132">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N12" s="168">
+      <c r="N12" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="str">
+      <c r="A13" s="95" t="str">
         <f>DATA!C5</f>
         <v>Дневная</v>
       </c>
-      <c r="B13" s="190" t="str">
+      <c r="B13" s="156" t="str">
         <f>DATA!B5</f>
         <v>ИФ</v>
       </c>
-      <c r="C13" s="191" t="str">
+      <c r="C13" s="157" t="str">
         <f>DATA!F5</f>
         <v>Техническое обеспечение процессов сельскохозяйственного производства</v>
       </c>
-      <c r="D13" s="129">
+      <c r="D13" s="97">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="98">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="97">
         <f>DATA!G5</f>
         <v>18</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="98">
         <f>DATA!I5</f>
         <v>3</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="99">
         <f>DATA!K5</f>
         <v>0</v>
       </c>
-      <c r="J13" s="129">
+      <c r="J13" s="97">
         <f>DATA!H5</f>
         <v>2</v>
       </c>
-      <c r="K13" s="130">
+      <c r="K13" s="98">
         <f>DATA!J5</f>
         <v>0</v>
       </c>
-      <c r="L13" s="131">
+      <c r="L13" s="99">
         <f>DATA!L5</f>
         <v>0</v>
       </c>
-      <c r="M13" s="129">
+      <c r="M13" s="97">
         <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
-      <c r="N13" s="131">
+      <c r="N13" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="str">
+      <c r="A14" s="109" t="str">
         <f>DATA!C25</f>
         <v>Дневная (Сокращенная)</v>
       </c>
-      <c r="B14" s="161" t="str">
+      <c r="B14" s="127" t="str">
         <f>DATA!B25</f>
         <v>ИФ</v>
       </c>
-      <c r="C14" s="152" t="str">
+      <c r="C14" s="118" t="str">
         <f>DATA!F25</f>
         <v>Агрономия</v>
       </c>
-      <c r="D14" s="137">
+      <c r="D14" s="105">
         <f t="shared" ref="D14" si="6">G14+J14</f>
         <v>20</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="72">
         <f t="shared" ref="E14" si="7">H14+K14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="138">
+      <c r="F14" s="106">
         <f t="shared" ref="F14" si="8">I14+L14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="137">
+      <c r="G14" s="105">
         <f>DATA!G25</f>
         <v>20</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="72">
         <f>DATA!I25</f>
         <v>0</v>
       </c>
-      <c r="I14" s="138">
+      <c r="I14" s="106">
         <f>DATA!K25</f>
         <v>0</v>
       </c>
-      <c r="J14" s="137">
+      <c r="J14" s="105">
         <f>DATA!H25</f>
         <v>0</v>
       </c>
-      <c r="K14" s="99">
+      <c r="K14" s="72">
         <f>DATA!J25</f>
         <v>0</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="106">
         <f>DATA!L25</f>
         <v>0</v>
       </c>
-      <c r="M14" s="137">
+      <c r="M14" s="105">
         <f t="shared" ref="M14:M15" si="9">ROUND(IF(G14=0,0,H14/G14),2)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="138">
+      <c r="N14" s="106">
         <f t="shared" ref="N14:N15" si="10">ROUND(IF(J14=0,0,K14/J14),2)</f>
         <v>0</v>
       </c>
@@ -4571,11 +4571,11 @@
         <f>DATA!C26</f>
         <v>Дневная (Сокращенная)</v>
       </c>
-      <c r="B15" s="162" t="str">
+      <c r="B15" s="128" t="str">
         <f>DATA!B26</f>
         <v>ИФ</v>
       </c>
-      <c r="C15" s="153" t="str">
+      <c r="C15" s="119" t="str">
         <f>DATA!F26</f>
         <v>Техническое обеспечение процессов сельскохозяйственного производства</v>
       </c>
@@ -4625,85 +4625,85 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="144">
+      <c r="B16" s="258"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="110">
         <f>SUM(D10,D13,D14,D15)</f>
         <v>105</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="111">
         <f t="shared" ref="E16:L16" si="14">SUM(E10,E13,E14,E15)</f>
         <v>8</v>
       </c>
-      <c r="F16" s="145">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="145">
+      <c r="F16" s="111">
+        <f>SUM(F10:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="111">
         <f t="shared" si="14"/>
         <v>94</v>
       </c>
-      <c r="H16" s="145">
+      <c r="H16" s="111">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="I16" s="145">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="145">
+      <c r="I16" s="111">
+        <f>SUM(I10:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="111">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="K16" s="145">
+      <c r="K16" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L16" s="146">
-        <f t="shared" si="14"/>
+      <c r="L16" s="112">
+        <f>SUM(L10:L15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="83" t="s">
+      <c r="E18" s="266"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="67" t="s">
+      <c r="H18" s="266"/>
+      <c r="I18" s="275"/>
+      <c r="J18" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70" t="s">
+      <c r="K18" s="266"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="72" t="s">
+      <c r="N18" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="260"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="47" t="s">
         <v>7</v>
       </c>
@@ -4731,411 +4731,411 @@
       <c r="L19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="73"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="273"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196" t="str">
+      <c r="A20" s="162" t="str">
         <f>DATA!C6</f>
         <v>Дневная</v>
       </c>
-      <c r="B20" s="184" t="str">
+      <c r="B20" s="150" t="str">
         <f>DATA!B6</f>
         <v>ФПП</v>
       </c>
-      <c r="C20" s="197" t="str">
+      <c r="C20" s="163" t="str">
         <f>DATA!F6</f>
         <v>ФПП (Дошкольное образование, Начальное образование, Практическая психология, Социальная педагогика)</v>
       </c>
-      <c r="D20" s="187">
+      <c r="D20" s="153">
         <f>G20+J20</f>
         <v>81</v>
       </c>
-      <c r="E20" s="188">
+      <c r="E20" s="154">
         <f t="shared" ref="E20" si="15">H20+K20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="189">
+      <c r="F20" s="155">
         <f t="shared" ref="F20" si="16">I20+L20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="198">
+      <c r="G20" s="164">
         <f>DATA!G6</f>
         <v>56</v>
       </c>
-      <c r="H20" s="188">
+      <c r="H20" s="154">
         <f>DATA!I6</f>
         <v>0</v>
       </c>
-      <c r="I20" s="199">
+      <c r="I20" s="165">
         <f>DATA!K6</f>
         <v>0</v>
       </c>
-      <c r="J20" s="187">
+      <c r="J20" s="153">
         <f>DATA!H6</f>
         <v>25</v>
       </c>
-      <c r="K20" s="188">
+      <c r="K20" s="154">
         <f>DATA!J6</f>
         <v>0</v>
       </c>
-      <c r="L20" s="189">
+      <c r="L20" s="155">
         <f>DATA!L6</f>
         <v>0</v>
       </c>
-      <c r="M20" s="198">
+      <c r="M20" s="164">
         <f>ROUND(IF(G20=0,0,H20/G20),2)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="189">
+      <c r="N20" s="155">
         <f>ROUND(IF(J20=0,0,K20/J20),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="177" t="str">
+      <c r="A21" s="143" t="str">
         <f>DATA!C7</f>
         <v>Дневная</v>
       </c>
-      <c r="B21" s="178" t="str">
+      <c r="B21" s="144" t="str">
         <f>DATA!B7</f>
         <v>ФПП</v>
       </c>
-      <c r="C21" s="179" t="str">
+      <c r="C21" s="145" t="str">
         <f>DATA!F7</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D21" s="180">
+      <c r="D21" s="146">
         <f t="shared" ref="D21:D27" si="17">G21+J21</f>
         <v>21</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="147">
         <f t="shared" ref="E21:E27" si="18">H21+K21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="182">
+      <c r="F21" s="148">
         <f t="shared" ref="F21:F27" si="19">I21+L21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="183">
+      <c r="G21" s="149">
         <f>DATA!G7</f>
         <v>16</v>
       </c>
-      <c r="H21" s="181">
+      <c r="H21" s="147">
         <f>DATA!I7</f>
         <v>0</v>
       </c>
-      <c r="I21" s="200">
+      <c r="I21" s="166">
         <f>DATA!K7</f>
         <v>0</v>
       </c>
-      <c r="J21" s="180">
+      <c r="J21" s="146">
         <f>DATA!H7</f>
         <v>5</v>
       </c>
-      <c r="K21" s="181">
+      <c r="K21" s="147">
         <f>DATA!J7</f>
         <v>0</v>
       </c>
-      <c r="L21" s="182">
+      <c r="L21" s="148">
         <f>DATA!L7</f>
         <v>0</v>
       </c>
-      <c r="M21" s="183">
+      <c r="M21" s="149">
         <f t="shared" ref="M21:M27" si="20">ROUND(IF(G21=0,0,H21/G21),2)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="182">
+      <c r="N21" s="148">
         <f t="shared" ref="N21:N27" si="21">ROUND(IF(J21=0,0,K21/J21),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="str">
+      <c r="A22" s="80" t="str">
         <f>DATA!C8</f>
         <v>Дневная</v>
       </c>
-      <c r="B22" s="113" t="str">
+      <c r="B22" s="81" t="str">
         <f>DATA!B8</f>
         <v>ФПП</v>
       </c>
-      <c r="C22" s="114" t="str">
+      <c r="C22" s="82" t="str">
         <f>DATA!F8</f>
         <v>Начальное образование</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="83">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="84">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F22" s="117">
+      <c r="F22" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="86">
         <f>DATA!G8</f>
         <v>15</v>
       </c>
-      <c r="H22" s="116">
+      <c r="H22" s="84">
         <f>DATA!I8</f>
         <v>0</v>
       </c>
-      <c r="I22" s="119">
+      <c r="I22" s="87">
         <f>DATA!K8</f>
         <v>0</v>
       </c>
-      <c r="J22" s="115">
+      <c r="J22" s="83">
         <f>DATA!H8</f>
         <v>5</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="84">
         <f>DATA!J8</f>
         <v>0</v>
       </c>
-      <c r="L22" s="117">
+      <c r="L22" s="85">
         <f>DATA!L8</f>
         <v>0</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="86">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N22" s="117">
+      <c r="N22" s="85">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="str">
+      <c r="A23" s="80" t="str">
         <f>DATA!C9</f>
         <v>Дневная</v>
       </c>
-      <c r="B23" s="113" t="str">
+      <c r="B23" s="81" t="str">
         <f>DATA!B9</f>
         <v>ФПП</v>
       </c>
-      <c r="C23" s="114" t="str">
+      <c r="C23" s="82" t="str">
         <f>DATA!F9</f>
         <v>Практическая психология</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="83">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="84">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F23" s="117">
+      <c r="F23" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="86">
         <f>DATA!G9</f>
         <v>10</v>
       </c>
-      <c r="H23" s="116">
+      <c r="H23" s="84">
         <f>DATA!I9</f>
         <v>0</v>
       </c>
-      <c r="I23" s="119">
+      <c r="I23" s="87">
         <f>DATA!K9</f>
         <v>0</v>
       </c>
-      <c r="J23" s="115">
+      <c r="J23" s="83">
         <f>DATA!H9</f>
         <v>10</v>
       </c>
-      <c r="K23" s="116">
+      <c r="K23" s="84">
         <f>DATA!J9</f>
         <v>0</v>
       </c>
-      <c r="L23" s="117">
+      <c r="L23" s="85">
         <f>DATA!L9</f>
         <v>0</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="86">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N23" s="117">
+      <c r="N23" s="85">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="str">
+      <c r="A24" s="129" t="str">
         <f>DATA!C10</f>
         <v>Дневная</v>
       </c>
-      <c r="B24" s="164" t="str">
+      <c r="B24" s="130" t="str">
         <f>DATA!B10</f>
         <v>ФПП</v>
       </c>
-      <c r="C24" s="165" t="str">
+      <c r="C24" s="131" t="str">
         <f>DATA!F10</f>
         <v>Социальная педагогика</v>
       </c>
-      <c r="D24" s="166">
+      <c r="D24" s="132">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="E24" s="167">
+      <c r="E24" s="133">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F24" s="168">
+      <c r="F24" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G24" s="169">
+      <c r="G24" s="135">
         <f>DATA!G10</f>
         <v>15</v>
       </c>
-      <c r="H24" s="167">
+      <c r="H24" s="133">
         <f>DATA!I10</f>
         <v>0</v>
       </c>
-      <c r="I24" s="170">
+      <c r="I24" s="136">
         <f>DATA!K10</f>
         <v>0</v>
       </c>
-      <c r="J24" s="166">
+      <c r="J24" s="132">
         <f>DATA!H10</f>
         <v>5</v>
       </c>
-      <c r="K24" s="167">
+      <c r="K24" s="133">
         <f>DATA!J10</f>
         <v>0</v>
       </c>
-      <c r="L24" s="168">
+      <c r="L24" s="134">
         <f>DATA!L10</f>
         <v>0</v>
       </c>
-      <c r="M24" s="169">
+      <c r="M24" s="135">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N24" s="168">
+      <c r="N24" s="134">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="str">
+      <c r="A25" s="94" t="str">
         <f>DATA!C11</f>
         <v>Дневная</v>
       </c>
-      <c r="B25" s="127" t="str">
+      <c r="B25" s="95" t="str">
         <f>DATA!B11</f>
         <v>ФПП</v>
       </c>
-      <c r="C25" s="128" t="str">
+      <c r="C25" s="96" t="str">
         <f>DATA!F11</f>
         <v>Геоэкология</v>
       </c>
-      <c r="D25" s="129">
+      <c r="D25" s="97">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="98">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="99">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G25" s="132">
+      <c r="G25" s="100">
         <f>DATA!G11</f>
         <v>18</v>
       </c>
-      <c r="H25" s="130">
+      <c r="H25" s="98">
         <f>DATA!I11</f>
         <v>0</v>
       </c>
-      <c r="I25" s="133">
+      <c r="I25" s="101">
         <f>DATA!K11</f>
         <v>0</v>
       </c>
-      <c r="J25" s="129">
+      <c r="J25" s="97">
         <f>DATA!H11</f>
         <v>2</v>
       </c>
-      <c r="K25" s="130">
+      <c r="K25" s="98">
         <f>DATA!J11</f>
         <v>0</v>
       </c>
-      <c r="L25" s="131">
+      <c r="L25" s="99">
         <f>DATA!L11</f>
         <v>0</v>
       </c>
-      <c r="M25" s="132">
+      <c r="M25" s="100">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="99">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="str">
+      <c r="A26" s="113" t="str">
         <f>DATA!C12</f>
         <v>Дневная</v>
       </c>
-      <c r="B26" s="142" t="str">
+      <c r="B26" s="109" t="str">
         <f>DATA!B12</f>
         <v>ФПП</v>
       </c>
-      <c r="C26" s="148" t="str">
+      <c r="C26" s="114" t="str">
         <f>DATA!F12</f>
         <v>Обслуживающий труд и изобразительное искусство</v>
       </c>
-      <c r="D26" s="137">
+      <c r="D26" s="105">
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="72">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F26" s="138">
+      <c r="F26" s="106">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G26" s="149">
+      <c r="G26" s="115">
         <f>DATA!G12</f>
         <v>18</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="72">
         <f>DATA!I12</f>
         <v>0</v>
       </c>
-      <c r="I26" s="150">
+      <c r="I26" s="116">
         <f>DATA!K12</f>
         <v>0</v>
       </c>
-      <c r="J26" s="137">
+      <c r="J26" s="105">
         <f>DATA!H12</f>
         <v>2</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="72">
         <f>DATA!J12</f>
         <v>0</v>
       </c>
-      <c r="L26" s="138">
+      <c r="L26" s="106">
         <f>DATA!L12</f>
         <v>0</v>
       </c>
-      <c r="M26" s="149">
+      <c r="M26" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N26" s="138">
+      <c r="N26" s="106">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -5153,39 +5153,39 @@
         <f>DATA!F13</f>
         <v>Физическая культура</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="67">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="E27" s="95">
+      <c r="E27" s="68">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="69">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="70">
         <f>DATA!G13</f>
         <v>22</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="68">
         <f>DATA!I13</f>
         <v>0</v>
       </c>
-      <c r="I27" s="98">
+      <c r="I27" s="71">
         <f>DATA!K13</f>
         <v>0</v>
       </c>
-      <c r="J27" s="94">
+      <c r="J27" s="67">
         <f>DATA!H13</f>
         <v>3</v>
       </c>
-      <c r="K27" s="95">
+      <c r="K27" s="68">
         <f>DATA!J13</f>
         <v>0</v>
       </c>
-      <c r="L27" s="96">
+      <c r="L27" s="69">
         <f>DATA!L13</f>
         <v>0</v>
       </c>
@@ -5199,85 +5199,85 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="107">
+      <c r="B28" s="258"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="75">
         <f>SUM(D20,D27,D25,D26)</f>
         <v>146</v>
       </c>
-      <c r="E28" s="108">
+      <c r="E28" s="76">
         <f t="shared" ref="E28:L28" si="22">SUM(E20,E27,E25,E26)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="109">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="107">
+      <c r="F28" s="77">
+        <f>SUM(F20:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="75">
         <f t="shared" si="22"/>
         <v>114</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="76">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I28" s="110">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="111">
+      <c r="I28" s="78">
+        <f>SUM(I20:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="79">
         <f t="shared" si="22"/>
         <v>32</v>
       </c>
-      <c r="K28" s="108">
+      <c r="K28" s="76">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L28" s="110">
-        <f t="shared" si="22"/>
+      <c r="L28" s="78">
+        <f>SUM(L20:L27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="83" t="s">
+      <c r="E30" s="266"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="67" t="s">
+      <c r="H30" s="266"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="70" t="s">
+      <c r="K30" s="266"/>
+      <c r="L30" s="267"/>
+      <c r="M30" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="260"/>
+      <c r="B31" s="262"/>
+      <c r="C31" s="264"/>
       <c r="D31" s="47" t="s">
         <v>7</v>
       </c>
@@ -5305,237 +5305,237 @@
       <c r="L31" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="73"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="273"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="196" t="str">
+      <c r="A32" s="162" t="str">
         <f>DATA!C14</f>
         <v>Дневная</v>
       </c>
-      <c r="B32" s="184" t="str">
+      <c r="B32" s="150" t="str">
         <f>DATA!B14</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="C32" s="186" t="str">
+      <c r="C32" s="152" t="str">
         <f>DATA!F14</f>
         <v>ФСГЯ (Современные иностранные языки, Иностранный язык)</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="164">
         <f>G32+J32</f>
         <v>93</v>
       </c>
-      <c r="E32" s="188">
+      <c r="E32" s="154">
         <f t="shared" ref="E32:E36" si="23">H32+K32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="165">
         <f t="shared" ref="F32:F36" si="24">I32+L32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="187">
+      <c r="G32" s="153">
         <f>DATA!G14</f>
         <v>63</v>
       </c>
-      <c r="H32" s="188">
+      <c r="H32" s="154">
         <f>DATA!I14</f>
         <v>0</v>
       </c>
-      <c r="I32" s="189">
+      <c r="I32" s="155">
         <f>DATA!K14</f>
         <v>0</v>
       </c>
-      <c r="J32" s="198">
+      <c r="J32" s="164">
         <f>DATA!H14</f>
         <v>30</v>
       </c>
-      <c r="K32" s="188">
+      <c r="K32" s="154">
         <f>DATA!J14</f>
         <v>0</v>
       </c>
-      <c r="L32" s="199">
+      <c r="L32" s="165">
         <f>DATA!L14</f>
         <v>0</v>
       </c>
-      <c r="M32" s="187">
+      <c r="M32" s="153">
         <f>ROUND(IF(G32=0,0,H32/G32),2)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="189">
+      <c r="N32" s="155">
         <f>ROUND(IF(J32=0,0,K32/J32),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="177" t="str">
+      <c r="A33" s="143" t="str">
         <f>DATA!C15</f>
         <v>Дневная</v>
       </c>
-      <c r="B33" s="178" t="str">
+      <c r="B33" s="144" t="str">
         <f>DATA!B15</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="C33" s="193" t="str">
+      <c r="C33" s="159" t="str">
         <f>DATA!F15</f>
         <v>Современные иностранные языки (по направлениям)</v>
       </c>
-      <c r="D33" s="183">
+      <c r="D33" s="149">
         <f t="shared" ref="D33:D36" si="25">G33+J33</f>
         <v>73</v>
       </c>
-      <c r="E33" s="181">
+      <c r="E33" s="147">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="166">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="G33" s="180">
+      <c r="G33" s="146">
         <f>DATA!G15</f>
         <v>48</v>
       </c>
-      <c r="H33" s="181">
+      <c r="H33" s="147">
         <f>DATA!I15</f>
         <v>0</v>
       </c>
-      <c r="I33" s="182">
+      <c r="I33" s="148">
         <f>DATA!K15</f>
         <v>0</v>
       </c>
-      <c r="J33" s="183">
+      <c r="J33" s="149">
         <f>DATA!H15</f>
         <v>25</v>
       </c>
-      <c r="K33" s="181">
+      <c r="K33" s="147">
         <f>DATA!J15</f>
         <v>0</v>
       </c>
-      <c r="L33" s="200">
+      <c r="L33" s="166">
         <f>DATA!L15</f>
         <v>0</v>
       </c>
-      <c r="M33" s="180">
+      <c r="M33" s="146">
         <f t="shared" ref="M33:M36" si="26">ROUND(IF(G33=0,0,H33/G33),2)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="182">
+      <c r="N33" s="148">
         <f t="shared" ref="N33:N36" si="27">ROUND(IF(J33=0,0,K33/J33),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="163" t="str">
+      <c r="A34" s="129" t="str">
         <f>DATA!C16</f>
         <v>Дневная</v>
       </c>
-      <c r="B34" s="164" t="str">
+      <c r="B34" s="130" t="str">
         <f>DATA!B16</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="C34" s="195" t="str">
+      <c r="C34" s="161" t="str">
         <f>DATA!F16</f>
         <v>Иностранный язык (английский)</v>
       </c>
-      <c r="D34" s="169">
+      <c r="D34" s="135">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="E34" s="167">
+      <c r="E34" s="133">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F34" s="170">
+      <c r="F34" s="136">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="G34" s="166">
+      <c r="G34" s="132">
         <f>DATA!G16</f>
         <v>15</v>
       </c>
-      <c r="H34" s="167">
+      <c r="H34" s="133">
         <f>DATA!I16</f>
         <v>0</v>
       </c>
-      <c r="I34" s="168">
+      <c r="I34" s="134">
         <f>DATA!K16</f>
         <v>0</v>
       </c>
-      <c r="J34" s="169">
+      <c r="J34" s="135">
         <f>DATA!H16</f>
         <v>5</v>
       </c>
-      <c r="K34" s="167">
+      <c r="K34" s="133">
         <f>DATA!J16</f>
         <v>0</v>
       </c>
-      <c r="L34" s="170">
+      <c r="L34" s="136">
         <f>DATA!L16</f>
         <v>0</v>
       </c>
-      <c r="M34" s="166">
+      <c r="M34" s="132">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N34" s="168">
+      <c r="N34" s="134">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="126" t="str">
+      <c r="A35" s="94" t="str">
         <f>DATA!C17</f>
         <v>Дневная</v>
       </c>
-      <c r="B35" s="127" t="str">
+      <c r="B35" s="95" t="str">
         <f>DATA!B17</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="C35" s="191" t="str">
+      <c r="C35" s="157" t="str">
         <f>DATA!F17</f>
         <v>Белорусский язык и литература. Иностранный язык (английский)</v>
       </c>
-      <c r="D35" s="201">
+      <c r="D35" s="167">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="E35" s="202">
+      <c r="E35" s="168">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F35" s="203">
+      <c r="F35" s="169">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="G35" s="129">
+      <c r="G35" s="97">
         <f>DATA!G17</f>
         <v>15</v>
       </c>
-      <c r="H35" s="130">
+      <c r="H35" s="98">
         <f>DATA!I17</f>
         <v>0</v>
       </c>
-      <c r="I35" s="131">
+      <c r="I35" s="99">
         <f>DATA!K17</f>
         <v>0</v>
       </c>
-      <c r="J35" s="132">
+      <c r="J35" s="100">
         <f>DATA!H17</f>
         <v>5</v>
       </c>
-      <c r="K35" s="130">
+      <c r="K35" s="98">
         <f>DATA!J17</f>
         <v>0</v>
       </c>
-      <c r="L35" s="133">
+      <c r="L35" s="101">
         <f>DATA!L17</f>
         <v>0</v>
       </c>
-      <c r="M35" s="204">
+      <c r="M35" s="170">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N35" s="205">
+      <c r="N35" s="171">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -5549,135 +5549,135 @@
         <f>DATA!B18</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="C36" s="153" t="str">
+      <c r="C36" s="119" t="str">
         <f>DATA!F18</f>
         <v>Иностранные языки (Немецкий, Английский)</v>
       </c>
-      <c r="D36" s="154">
+      <c r="D36" s="120">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="E36" s="155">
+      <c r="E36" s="121">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F36" s="156">
+      <c r="F36" s="122">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="67">
         <f>DATA!G18</f>
         <v>18</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="68">
         <f>DATA!I18</f>
         <v>0</v>
       </c>
-      <c r="I36" s="96">
+      <c r="I36" s="69">
         <f>DATA!K18</f>
         <v>0</v>
       </c>
-      <c r="J36" s="97">
+      <c r="J36" s="70">
         <f>DATA!H18</f>
         <v>2</v>
       </c>
-      <c r="K36" s="95">
+      <c r="K36" s="68">
         <f>DATA!J18</f>
         <v>0</v>
       </c>
-      <c r="L36" s="98">
+      <c r="L36" s="71">
         <f>DATA!L18</f>
         <v>0</v>
       </c>
-      <c r="M36" s="139">
+      <c r="M36" s="107">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N36" s="140">
+      <c r="N36" s="108">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="107">
+      <c r="B37" s="258"/>
+      <c r="C37" s="258"/>
+      <c r="D37" s="75">
         <f>SUM(D32,D35,D36)</f>
         <v>133</v>
       </c>
-      <c r="E37" s="108">
+      <c r="E37" s="76">
         <f t="shared" ref="E37:L37" si="28">SUM(E32,E35,E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="109">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="107">
+      <c r="F37" s="77">
+        <f>SUM(F32:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="75">
         <f t="shared" si="28"/>
         <v>96</v>
       </c>
-      <c r="H37" s="108">
+      <c r="H37" s="76">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I37" s="110">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="111">
+      <c r="I37" s="78">
+        <f>SUM(I32:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="79">
         <f t="shared" si="28"/>
         <v>37</v>
       </c>
-      <c r="K37" s="108">
+      <c r="K37" s="76">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L37" s="110">
-        <f t="shared" si="28"/>
+      <c r="L37" s="78">
+        <f>SUM(L32:L36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="83" t="s">
+      <c r="E39" s="266"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="67" t="s">
+      <c r="H39" s="266"/>
+      <c r="I39" s="275"/>
+      <c r="J39" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="70" t="s">
+      <c r="K39" s="266"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="72" t="s">
+      <c r="N39" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="260"/>
+      <c r="B40" s="262"/>
+      <c r="C40" s="264"/>
       <c r="D40" s="47" t="s">
         <v>7</v>
       </c>
@@ -5705,484 +5705,484 @@
       <c r="L40" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="71"/>
-      <c r="N40" s="73"/>
+      <c r="M40" s="271"/>
+      <c r="N40" s="273"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="196" t="str">
+      <c r="A41" s="162" t="str">
         <f>DATA!C19</f>
         <v>Дневная</v>
       </c>
-      <c r="B41" s="184" t="str">
+      <c r="B41" s="150" t="str">
         <f>DATA!B19</f>
         <v>ФЭП</v>
       </c>
-      <c r="C41" s="197" t="str">
+      <c r="C41" s="163" t="str">
         <f>DATA!F19</f>
         <v>ФЭП (Бухгалтерский учёт анализ и аудит,  Электронный маркетинг)</v>
       </c>
-      <c r="D41" s="187">
+      <c r="D41" s="153">
         <f>G41+J41</f>
         <v>40</v>
       </c>
-      <c r="E41" s="188">
+      <c r="E41" s="154">
         <f t="shared" ref="E41:E46" si="29">H41+K41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="189">
+      <c r="F41" s="155">
         <f t="shared" ref="F41:F46" si="30">I41+L41</f>
         <v>0</v>
       </c>
-      <c r="G41" s="198">
+      <c r="G41" s="164">
         <f>DATA!G19</f>
         <v>20</v>
       </c>
-      <c r="H41" s="188">
+      <c r="H41" s="154">
         <f>DATA!I19</f>
         <v>0</v>
       </c>
-      <c r="I41" s="199">
+      <c r="I41" s="165">
         <f>DATA!K19</f>
         <v>0</v>
       </c>
-      <c r="J41" s="187">
+      <c r="J41" s="153">
         <f>DATA!H19</f>
         <v>20</v>
       </c>
-      <c r="K41" s="188">
+      <c r="K41" s="154">
         <f>DATA!J19</f>
         <v>0</v>
       </c>
-      <c r="L41" s="189">
+      <c r="L41" s="155">
         <f>DATA!L19</f>
         <v>0</v>
       </c>
-      <c r="M41" s="198">
+      <c r="M41" s="164">
         <f>ROUND(IF(G41=0,0,H41/G41),2)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="189">
+      <c r="N41" s="155">
         <f>ROUND(IF(J41=0,0,K41/J41),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="177" t="str">
+      <c r="A42" s="143" t="str">
         <f>DATA!C20</f>
         <v>Дневная</v>
       </c>
-      <c r="B42" s="178" t="str">
+      <c r="B42" s="144" t="str">
         <f>DATA!B20</f>
         <v>ФЭП</v>
       </c>
-      <c r="C42" s="179" t="str">
+      <c r="C42" s="145" t="str">
         <f>DATA!F20</f>
         <v>Бухгалтерский учет, анализ и аудит</v>
       </c>
-      <c r="D42" s="180">
+      <c r="D42" s="146">
         <f t="shared" ref="D42:D46" si="31">G42+J42</f>
         <v>20</v>
       </c>
-      <c r="E42" s="181">
+      <c r="E42" s="147">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F42" s="182">
+      <c r="F42" s="148">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G42" s="183">
+      <c r="G42" s="149">
         <f>DATA!G20</f>
         <v>10</v>
       </c>
-      <c r="H42" s="181">
+      <c r="H42" s="147">
         <f>DATA!I20</f>
         <v>0</v>
       </c>
-      <c r="I42" s="200">
+      <c r="I42" s="166">
         <f>DATA!K20</f>
         <v>0</v>
       </c>
-      <c r="J42" s="180">
+      <c r="J42" s="146">
         <f>DATA!H20</f>
         <v>10</v>
       </c>
-      <c r="K42" s="181">
+      <c r="K42" s="147">
         <f>DATA!J20</f>
         <v>0</v>
       </c>
-      <c r="L42" s="182">
+      <c r="L42" s="148">
         <f>DATA!L20</f>
         <v>0</v>
       </c>
-      <c r="M42" s="183">
+      <c r="M42" s="149">
         <f t="shared" ref="M42:M46" si="32">ROUND(IF(G42=0,0,H42/G42),2)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="182">
+      <c r="N42" s="148">
         <f t="shared" ref="N42:N46" si="33">ROUND(IF(J42=0,0,K42/J42),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="163" t="str">
+      <c r="A43" s="129" t="str">
         <f>DATA!C21</f>
         <v>Дневная</v>
       </c>
-      <c r="B43" s="164" t="str">
+      <c r="B43" s="130" t="str">
         <f>DATA!B21</f>
         <v>ФЭП</v>
       </c>
-      <c r="C43" s="165" t="str">
+      <c r="C43" s="131" t="str">
         <f>DATA!F21</f>
         <v>Электронный маркетинг</v>
       </c>
-      <c r="D43" s="166">
+      <c r="D43" s="132">
         <f t="shared" si="31"/>
         <v>20</v>
       </c>
-      <c r="E43" s="167">
+      <c r="E43" s="133">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F43" s="168">
+      <c r="F43" s="134">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G43" s="169">
+      <c r="G43" s="135">
         <f>DATA!G21</f>
         <v>10</v>
       </c>
-      <c r="H43" s="167">
+      <c r="H43" s="133">
         <f>DATA!I21</f>
         <v>0</v>
       </c>
-      <c r="I43" s="170">
+      <c r="I43" s="136">
         <f>DATA!K21</f>
         <v>0</v>
       </c>
-      <c r="J43" s="166">
+      <c r="J43" s="132">
         <f>DATA!H21</f>
         <v>10</v>
       </c>
-      <c r="K43" s="167">
+      <c r="K43" s="133">
         <f>DATA!J21</f>
         <v>0</v>
       </c>
-      <c r="L43" s="168">
+      <c r="L43" s="134">
         <f>DATA!L21</f>
         <v>0</v>
       </c>
-      <c r="M43" s="169">
+      <c r="M43" s="135">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N43" s="168">
+      <c r="N43" s="134">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124" t="str">
+      <c r="A44" s="92" t="str">
         <f>DATA!C22</f>
         <v>Дневная</v>
       </c>
-      <c r="B44" s="125" t="str">
+      <c r="B44" s="93" t="str">
         <f>DATA!B22</f>
         <v>ФЭП</v>
       </c>
-      <c r="C44" s="151" t="str">
+      <c r="C44" s="117" t="str">
         <f>DATA!F22</f>
         <v>ФЭП (Правоведение, Экономическое право)</v>
       </c>
-      <c r="D44" s="206">
+      <c r="D44" s="172">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="E44" s="207">
+      <c r="E44" s="173">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F44" s="208">
+      <c r="F44" s="174">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G44" s="160">
+      <c r="G44" s="126">
         <f>DATA!G22</f>
         <v>0</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="103">
         <f>DATA!I22</f>
         <v>0</v>
       </c>
-      <c r="I44" s="159">
+      <c r="I44" s="125">
         <f>DATA!K22</f>
         <v>0</v>
       </c>
-      <c r="J44" s="134">
+      <c r="J44" s="102">
         <f>DATA!H22</f>
         <v>40</v>
       </c>
-      <c r="K44" s="135">
+      <c r="K44" s="103">
         <f>DATA!J22</f>
         <v>0</v>
       </c>
-      <c r="L44" s="136">
+      <c r="L44" s="104">
         <f>DATA!L22</f>
         <v>0</v>
       </c>
-      <c r="M44" s="209">
+      <c r="M44" s="175">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N44" s="208">
+      <c r="N44" s="174">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="177" t="str">
+      <c r="A45" s="143" t="str">
         <f>DATA!C23</f>
         <v>Дневная</v>
       </c>
-      <c r="B45" s="178" t="str">
+      <c r="B45" s="144" t="str">
         <f>DATA!B23</f>
         <v>ФЭП</v>
       </c>
-      <c r="C45" s="179" t="str">
+      <c r="C45" s="145" t="str">
         <f>DATA!F23</f>
         <v>Правоведение</v>
       </c>
-      <c r="D45" s="180">
+      <c r="D45" s="146">
         <f t="shared" si="31"/>
         <v>20</v>
       </c>
-      <c r="E45" s="181">
+      <c r="E45" s="147">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F45" s="182">
+      <c r="F45" s="148">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G45" s="183">
+      <c r="G45" s="149">
         <f>DATA!G23</f>
         <v>0</v>
       </c>
-      <c r="H45" s="181">
+      <c r="H45" s="147">
         <f>DATA!I23</f>
         <v>0</v>
       </c>
-      <c r="I45" s="200">
+      <c r="I45" s="166">
         <f>DATA!K23</f>
         <v>0</v>
       </c>
-      <c r="J45" s="180">
+      <c r="J45" s="146">
         <f>DATA!H23</f>
         <v>20</v>
       </c>
-      <c r="K45" s="181">
+      <c r="K45" s="147">
         <f>DATA!J23</f>
         <v>0</v>
       </c>
-      <c r="L45" s="182">
+      <c r="L45" s="148">
         <f>DATA!L23</f>
         <v>0</v>
       </c>
-      <c r="M45" s="183">
+      <c r="M45" s="149">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N45" s="182">
+      <c r="N45" s="148">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="str">
+      <c r="A46" s="129" t="str">
         <f>DATA!C24</f>
         <v>Дневная</v>
       </c>
-      <c r="B46" s="164" t="str">
+      <c r="B46" s="130" t="str">
         <f>DATA!B24</f>
         <v>ФЭП</v>
       </c>
-      <c r="C46" s="165" t="str">
+      <c r="C46" s="131" t="str">
         <f>DATA!F24</f>
         <v>Экономическое право</v>
       </c>
-      <c r="D46" s="166">
+      <c r="D46" s="132">
         <f t="shared" si="31"/>
         <v>20</v>
       </c>
-      <c r="E46" s="167">
+      <c r="E46" s="133">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F46" s="168">
+      <c r="F46" s="134">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G46" s="169">
+      <c r="G46" s="135">
         <f>DATA!G24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="167">
+      <c r="H46" s="133">
         <f>DATA!I24</f>
         <v>0</v>
       </c>
-      <c r="I46" s="170">
+      <c r="I46" s="136">
         <f>DATA!K24</f>
         <v>0</v>
       </c>
-      <c r="J46" s="166">
+      <c r="J46" s="132">
         <f>DATA!H24</f>
         <v>20</v>
       </c>
-      <c r="K46" s="167">
+      <c r="K46" s="133">
         <f>DATA!J24</f>
         <v>0</v>
       </c>
-      <c r="L46" s="168">
+      <c r="L46" s="134">
         <f>DATA!L24</f>
         <v>0</v>
       </c>
-      <c r="M46" s="169">
+      <c r="M46" s="135">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N46" s="168">
+      <c r="N46" s="134">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="171">
+      <c r="B47" s="258"/>
+      <c r="C47" s="258"/>
+      <c r="D47" s="137">
         <f>SUM(D41,D44)</f>
         <v>80</v>
       </c>
-      <c r="E47" s="172">
+      <c r="E47" s="138">
         <f t="shared" ref="E47:L47" si="34">SUM(E41,E44)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="173">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="171">
+      <c r="F47" s="139">
+        <f>SUM(F41:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="137">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
-      <c r="H47" s="172">
+      <c r="H47" s="138">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="I47" s="174">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="175">
+      <c r="I47" s="140">
+        <f>SUM(I41:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="141">
         <f t="shared" si="34"/>
         <v>60</v>
       </c>
-      <c r="K47" s="172">
+      <c r="K47" s="138">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="L47" s="174">
-        <f t="shared" si="34"/>
+      <c r="L47" s="140">
+        <f>SUM(L41:L46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107">
+      <c r="B48" s="284"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="75">
         <f>SUM(D16,D28,D37,D47)</f>
         <v>464</v>
       </c>
-      <c r="E48" s="108">
+      <c r="E48" s="76">
         <f t="shared" ref="E48:L48" si="35">SUM(E16,E28,E37,E47)</f>
         <v>8</v>
       </c>
-      <c r="F48" s="109">
+      <c r="F48" s="77">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="G48" s="107">
+      <c r="G48" s="75">
         <f t="shared" si="35"/>
         <v>324</v>
       </c>
-      <c r="H48" s="108">
+      <c r="H48" s="76">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="I48" s="110">
+      <c r="I48" s="78">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J48" s="111">
+      <c r="J48" s="79">
         <f t="shared" si="35"/>
         <v>140</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="76">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L48" s="110">
+      <c r="L48" s="78">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="176" t="s">
+      <c r="A51" s="142" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="68"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="83" t="s">
+      <c r="E52" s="266"/>
+      <c r="F52" s="267"/>
+      <c r="G52" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="67" t="s">
+      <c r="H52" s="266"/>
+      <c r="I52" s="275"/>
+      <c r="J52" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70" t="s">
+      <c r="K52" s="266"/>
+      <c r="L52" s="267"/>
+      <c r="M52" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N52" s="72" t="s">
+      <c r="N52" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="82"/>
+      <c r="A53" s="260"/>
+      <c r="B53" s="262"/>
+      <c r="C53" s="264"/>
       <c r="D53" s="47" t="s">
         <v>7</v>
       </c>
@@ -6210,8 +6210,8 @@
       <c r="L53" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M53" s="71"/>
-      <c r="N53" s="73"/>
+      <c r="M53" s="271"/>
+      <c r="N53" s="273"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="str">
@@ -6272,117 +6272,117 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="str">
+      <c r="A55" s="113" t="str">
         <f>DATA!C32</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B55" s="142" t="str">
+      <c r="B55" s="109" t="str">
         <f>DATA!B32</f>
         <v>ИФ</v>
       </c>
-      <c r="C55" s="148" t="str">
+      <c r="C55" s="114" t="str">
         <f>DATA!F32</f>
         <v>Технология машиностроения</v>
       </c>
-      <c r="D55" s="120">
+      <c r="D55" s="88">
         <f t="shared" ref="D55:D57" si="38">G55+J55</f>
         <v>21</v>
       </c>
-      <c r="E55" s="121">
+      <c r="E55" s="89">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F55" s="122">
+      <c r="F55" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G55" s="149">
+      <c r="G55" s="115">
         <f>DATA!G32</f>
         <v>6</v>
       </c>
-      <c r="H55" s="99">
+      <c r="H55" s="72">
         <f>DATA!I32</f>
         <v>0</v>
       </c>
-      <c r="I55" s="150">
+      <c r="I55" s="116">
         <f>DATA!K32</f>
         <v>0</v>
       </c>
-      <c r="J55" s="137">
+      <c r="J55" s="105">
         <f>DATA!H32</f>
         <v>15</v>
       </c>
-      <c r="K55" s="99">
+      <c r="K55" s="72">
         <f>DATA!J32</f>
         <v>0</v>
       </c>
-      <c r="L55" s="138">
+      <c r="L55" s="106">
         <f>DATA!L32</f>
         <v>0</v>
       </c>
-      <c r="M55" s="123">
+      <c r="M55" s="91">
         <f t="shared" ref="M55:M57" si="39">ROUND(IF(G55=0,0,H55/G55),2)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="122">
+      <c r="N55" s="90">
         <f t="shared" ref="N55:N57" si="40">ROUND(IF(J55=0,0,K55/J55),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="147" t="str">
+      <c r="A56" s="113" t="str">
         <f>DATA!C33</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B56" s="142" t="str">
+      <c r="B56" s="109" t="str">
         <f>DATA!B33</f>
         <v>ИФ</v>
       </c>
-      <c r="C56" s="148" t="str">
+      <c r="C56" s="114" t="str">
         <f>DATA!F33</f>
         <v>Агрономия</v>
       </c>
-      <c r="D56" s="137">
+      <c r="D56" s="105">
         <f t="shared" si="38"/>
         <v>20</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="72">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F56" s="138">
+      <c r="F56" s="106">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G56" s="149">
+      <c r="G56" s="115">
         <f>DATA!G33</f>
         <v>17</v>
       </c>
-      <c r="H56" s="99">
+      <c r="H56" s="72">
         <f>DATA!I33</f>
         <v>0</v>
       </c>
-      <c r="I56" s="150">
+      <c r="I56" s="116">
         <f>DATA!K33</f>
         <v>0</v>
       </c>
-      <c r="J56" s="137">
+      <c r="J56" s="105">
         <f>DATA!H33</f>
         <v>3</v>
       </c>
-      <c r="K56" s="99">
+      <c r="K56" s="72">
         <f>DATA!J33</f>
         <v>0</v>
       </c>
-      <c r="L56" s="138">
+      <c r="L56" s="106">
         <f>DATA!L33</f>
         <v>0</v>
       </c>
-      <c r="M56" s="149">
+      <c r="M56" s="115">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N56" s="138">
+      <c r="N56" s="106">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -6400,39 +6400,39 @@
         <f>DATA!F34</f>
         <v>Техническое обеспечение процессов сельскохозяйственного производства</v>
       </c>
-      <c r="D57" s="94">
+      <c r="D57" s="67">
         <f t="shared" si="38"/>
         <v>23</v>
       </c>
-      <c r="E57" s="95">
+      <c r="E57" s="68">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F57" s="96">
+      <c r="F57" s="69">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G57" s="97">
+      <c r="G57" s="70">
         <f>DATA!G34</f>
         <v>7</v>
       </c>
-      <c r="H57" s="95">
+      <c r="H57" s="68">
         <f>DATA!I34</f>
         <v>0</v>
       </c>
-      <c r="I57" s="98">
+      <c r="I57" s="71">
         <f>DATA!K34</f>
         <v>0</v>
       </c>
-      <c r="J57" s="94">
+      <c r="J57" s="67">
         <f>DATA!H34</f>
         <v>16</v>
       </c>
-      <c r="K57" s="95">
+      <c r="K57" s="68">
         <f>DATA!J34</f>
         <v>0</v>
       </c>
-      <c r="L57" s="96">
+      <c r="L57" s="69">
         <f>DATA!L34</f>
         <v>0</v>
       </c>
@@ -6446,85 +6446,85 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="107">
+      <c r="B58" s="258"/>
+      <c r="C58" s="258"/>
+      <c r="D58" s="75">
         <f>SUM(D54:D57)</f>
         <v>84</v>
       </c>
-      <c r="E58" s="108">
+      <c r="E58" s="76">
         <f t="shared" ref="E58:L58" si="41">SUM(E54:E57)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="109">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="107">
+      <c r="F58" s="77">
+        <f>SUM(F54:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="75">
         <f t="shared" si="41"/>
         <v>37</v>
       </c>
-      <c r="H58" s="108">
+      <c r="H58" s="76">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="I58" s="110">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="111">
+      <c r="I58" s="78">
+        <f>SUM(I54:I57)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="79">
         <f t="shared" si="41"/>
         <v>47</v>
       </c>
-      <c r="K58" s="108">
+      <c r="K58" s="76">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="L58" s="110">
-        <f t="shared" si="41"/>
+      <c r="L58" s="78">
+        <f>SUM(L54:L57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="83" t="s">
+      <c r="E60" s="266"/>
+      <c r="F60" s="267"/>
+      <c r="G60" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="68"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="67" t="s">
+      <c r="H60" s="266"/>
+      <c r="I60" s="275"/>
+      <c r="J60" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="70" t="s">
+      <c r="K60" s="266"/>
+      <c r="L60" s="267"/>
+      <c r="M60" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N60" s="72" t="s">
+      <c r="N60" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="82"/>
+      <c r="A61" s="260"/>
+      <c r="B61" s="262"/>
+      <c r="C61" s="264"/>
       <c r="D61" s="47" t="s">
         <v>7</v>
       </c>
@@ -6552,321 +6552,321 @@
       <c r="L61" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M61" s="71"/>
-      <c r="N61" s="73"/>
+      <c r="M61" s="271"/>
+      <c r="N61" s="273"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="196" t="str">
+      <c r="A62" s="162" t="str">
         <f>DATA!C27</f>
         <v>Заочная</v>
       </c>
-      <c r="B62" s="184" t="str">
+      <c r="B62" s="150" t="str">
         <f>DATA!B27</f>
         <v>ФПП</v>
       </c>
-      <c r="C62" s="197" t="str">
+      <c r="C62" s="163" t="str">
         <f>DATA!F27</f>
         <v>ФПП (Дошкольное образование, Практическая психология)</v>
       </c>
-      <c r="D62" s="187">
+      <c r="D62" s="153">
         <f>G62+J62</f>
         <v>40</v>
       </c>
-      <c r="E62" s="188">
+      <c r="E62" s="154">
         <f t="shared" ref="E62:E65" si="42">H62+K62</f>
         <v>0</v>
       </c>
-      <c r="F62" s="189">
+      <c r="F62" s="155">
         <f t="shared" ref="F62:F65" si="43">I62+L62</f>
         <v>0</v>
       </c>
-      <c r="G62" s="198">
+      <c r="G62" s="164">
         <f>DATA!G27</f>
         <v>15</v>
       </c>
-      <c r="H62" s="188">
+      <c r="H62" s="154">
         <f>DATA!I27</f>
         <v>0</v>
       </c>
-      <c r="I62" s="199">
+      <c r="I62" s="165">
         <f>DATA!K27</f>
         <v>0</v>
       </c>
-      <c r="J62" s="187">
+      <c r="J62" s="153">
         <f>DATA!H27</f>
         <v>25</v>
       </c>
-      <c r="K62" s="188">
+      <c r="K62" s="154">
         <f>DATA!J27</f>
         <v>0</v>
       </c>
-      <c r="L62" s="189">
+      <c r="L62" s="155">
         <f>DATA!L27</f>
         <v>0</v>
       </c>
-      <c r="M62" s="198">
+      <c r="M62" s="164">
         <f>ROUND(IF(G62=0,0,H62/G62),2)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="189">
+      <c r="N62" s="155">
         <f>ROUND(IF(J62=0,0,K62/J62),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="177" t="str">
+      <c r="A63" s="143" t="str">
         <f>DATA!C28</f>
         <v>Заочная</v>
       </c>
-      <c r="B63" s="178" t="str">
+      <c r="B63" s="144" t="str">
         <f>DATA!B28</f>
         <v>ФПП</v>
       </c>
-      <c r="C63" s="179" t="str">
+      <c r="C63" s="145" t="str">
         <f>DATA!F28</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D63" s="180">
+      <c r="D63" s="146">
         <f t="shared" ref="D63:D65" si="44">G63+J63</f>
         <v>20</v>
       </c>
-      <c r="E63" s="181">
+      <c r="E63" s="147">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F63" s="182">
+      <c r="F63" s="148">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G63" s="183">
+      <c r="G63" s="149">
         <f>DATA!G28</f>
         <v>10</v>
       </c>
-      <c r="H63" s="181">
+      <c r="H63" s="147">
         <f>DATA!I28</f>
         <v>0</v>
       </c>
-      <c r="I63" s="200">
+      <c r="I63" s="166">
         <f>DATA!K28</f>
         <v>0</v>
       </c>
-      <c r="J63" s="180">
+      <c r="J63" s="146">
         <f>DATA!H28</f>
         <v>10</v>
       </c>
-      <c r="K63" s="181">
+      <c r="K63" s="147">
         <f>DATA!J28</f>
         <v>0</v>
       </c>
-      <c r="L63" s="182">
+      <c r="L63" s="148">
         <f>DATA!L28</f>
         <v>0</v>
       </c>
-      <c r="M63" s="183">
+      <c r="M63" s="149">
         <f t="shared" ref="M63:M65" si="45">ROUND(IF(G63=0,0,H63/G63),2)</f>
         <v>0</v>
       </c>
-      <c r="N63" s="182">
+      <c r="N63" s="148">
         <f t="shared" ref="N63:N65" si="46">ROUND(IF(J63=0,0,K63/J63),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="163" t="str">
+      <c r="A64" s="129" t="str">
         <f>DATA!C29</f>
         <v>Заочная</v>
       </c>
-      <c r="B64" s="164" t="str">
+      <c r="B64" s="130" t="str">
         <f>DATA!B29</f>
         <v>ФПП</v>
       </c>
-      <c r="C64" s="165" t="str">
+      <c r="C64" s="131" t="str">
         <f>DATA!F29</f>
         <v>Практическая психология</v>
       </c>
-      <c r="D64" s="166">
+      <c r="D64" s="132">
         <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="E64" s="167">
+      <c r="E64" s="133">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F64" s="168">
+      <c r="F64" s="134">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G64" s="169">
+      <c r="G64" s="135">
         <f>DATA!G29</f>
         <v>5</v>
       </c>
-      <c r="H64" s="167">
+      <c r="H64" s="133">
         <f>DATA!I29</f>
         <v>0</v>
       </c>
-      <c r="I64" s="170">
+      <c r="I64" s="136">
         <f>DATA!K29</f>
         <v>0</v>
       </c>
-      <c r="J64" s="166">
+      <c r="J64" s="132">
         <f>DATA!H29</f>
         <v>15</v>
       </c>
-      <c r="K64" s="167">
+      <c r="K64" s="133">
         <f>DATA!J29</f>
         <v>0</v>
       </c>
-      <c r="L64" s="168">
+      <c r="L64" s="134">
         <f>DATA!L29</f>
         <v>0</v>
       </c>
-      <c r="M64" s="169">
+      <c r="M64" s="135">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N64" s="168">
+      <c r="N64" s="134">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="157" t="str">
+      <c r="A65" s="123" t="str">
         <f>DATA!C35</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B65" s="210" t="str">
+      <c r="B65" s="176" t="str">
         <f>DATA!B35</f>
         <v>ФПП</v>
       </c>
-      <c r="C65" s="158" t="str">
+      <c r="C65" s="124" t="str">
         <f>DATA!F35</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D65" s="134">
+      <c r="D65" s="102">
         <f t="shared" si="44"/>
         <v>23</v>
       </c>
-      <c r="E65" s="135">
+      <c r="E65" s="103">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F65" s="136">
+      <c r="F65" s="104">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G65" s="160">
+      <c r="G65" s="126">
         <f>DATA!G35</f>
         <v>15</v>
       </c>
-      <c r="H65" s="135">
+      <c r="H65" s="103">
         <f>DATA!I35</f>
         <v>0</v>
       </c>
-      <c r="I65" s="159">
+      <c r="I65" s="125">
         <f>DATA!K35</f>
         <v>0</v>
       </c>
-      <c r="J65" s="134">
+      <c r="J65" s="102">
         <f>DATA!H35</f>
         <v>8</v>
       </c>
-      <c r="K65" s="135">
+      <c r="K65" s="103">
         <f>DATA!J35</f>
         <v>0</v>
       </c>
-      <c r="L65" s="136">
+      <c r="L65" s="104">
         <f>DATA!L35</f>
         <v>0</v>
       </c>
-      <c r="M65" s="211">
+      <c r="M65" s="177">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N65" s="212">
+      <c r="N65" s="178">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="107">
+      <c r="B66" s="258"/>
+      <c r="C66" s="258"/>
+      <c r="D66" s="75">
         <f>SUM(D62,D65)</f>
         <v>63</v>
       </c>
-      <c r="E66" s="108">
+      <c r="E66" s="76">
         <f t="shared" ref="E66:L66" si="47">SUM(E62,E65)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="109">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="107">
+      <c r="F66" s="77">
+        <f>SUM(F62:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="75">
         <f t="shared" si="47"/>
         <v>30</v>
       </c>
-      <c r="H66" s="108">
+      <c r="H66" s="76">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="I66" s="110">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="111">
+      <c r="I66" s="78">
+        <f>SUM(I62:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="79">
         <f t="shared" si="47"/>
         <v>33</v>
       </c>
-      <c r="K66" s="108">
+      <c r="K66" s="76">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L66" s="110">
-        <f t="shared" si="47"/>
+      <c r="L66" s="78">
+        <f>SUM(L62:L65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C68" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="67" t="s">
+      <c r="D68" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="68"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="83" t="s">
+      <c r="E68" s="266"/>
+      <c r="F68" s="267"/>
+      <c r="G68" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="68"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="67" t="s">
+      <c r="H68" s="266"/>
+      <c r="I68" s="275"/>
+      <c r="J68" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="68"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="70" t="s">
+      <c r="K68" s="266"/>
+      <c r="L68" s="267"/>
+      <c r="M68" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="72" t="s">
+      <c r="N68" s="272" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="82"/>
+      <c r="A69" s="260"/>
+      <c r="B69" s="262"/>
+      <c r="C69" s="264"/>
       <c r="D69" s="47" t="s">
         <v>7</v>
       </c>
@@ -6894,8 +6894,8 @@
       <c r="L69" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M69" s="71"/>
-      <c r="N69" s="73"/>
+      <c r="M69" s="271"/>
+      <c r="N69" s="273"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="str">
@@ -6956,59 +6956,59 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="147" t="str">
+      <c r="A71" s="113" t="str">
         <f>DATA!C36</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B71" s="142" t="str">
+      <c r="B71" s="109" t="str">
         <f>DATA!B36</f>
         <v>ФЭП</v>
       </c>
-      <c r="C71" s="148" t="str">
+      <c r="C71" s="114" t="str">
         <f>DATA!F36</f>
         <v>Правоведение</v>
       </c>
-      <c r="D71" s="137">
+      <c r="D71" s="105">
         <f t="shared" ref="D71" si="50">G71+J71</f>
         <v>25</v>
       </c>
-      <c r="E71" s="99">
+      <c r="E71" s="72">
         <f t="shared" ref="E71" si="51">H71+K71</f>
         <v>0</v>
       </c>
-      <c r="F71" s="138">
+      <c r="F71" s="106">
         <f t="shared" ref="F71" si="52">I71+L71</f>
         <v>0</v>
       </c>
-      <c r="G71" s="149">
+      <c r="G71" s="115">
         <f>DATA!G36</f>
         <v>0</v>
       </c>
-      <c r="H71" s="99">
+      <c r="H71" s="72">
         <f>DATA!I36</f>
         <v>0</v>
       </c>
-      <c r="I71" s="150">
+      <c r="I71" s="116">
         <f>DATA!K36</f>
         <v>0</v>
       </c>
-      <c r="J71" s="137">
+      <c r="J71" s="105">
         <f>DATA!H36</f>
         <v>25</v>
       </c>
-      <c r="K71" s="99">
+      <c r="K71" s="72">
         <f>DATA!J36</f>
         <v>0</v>
       </c>
-      <c r="L71" s="138">
+      <c r="L71" s="106">
         <f>DATA!L36</f>
         <v>0</v>
       </c>
-      <c r="M71" s="149">
+      <c r="M71" s="115">
         <f t="shared" ref="M71" si="53">ROUND(IF(G71=0,0,H71/G71),2)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="138">
+      <c r="N71" s="106">
         <f t="shared" ref="N71" si="54">ROUND(IF(J71=0,0,K71/J71),2)</f>
         <v>0</v>
       </c>
@@ -7022,413 +7022,413 @@
         <f>DATA!B37</f>
         <v>ФЭП</v>
       </c>
-      <c r="C72" s="213" t="str">
+      <c r="C72" s="179" t="str">
         <f>DATA!F37</f>
         <v>ФЭП (Бухгалтерский учет, анализ и аудит (по направлениям), Маркетинг) - общий конкурс</v>
       </c>
-      <c r="D72" s="94">
+      <c r="D72" s="67">
         <f t="shared" ref="D72:D76" si="55">G72+J72</f>
         <v>80</v>
       </c>
-      <c r="E72" s="95">
+      <c r="E72" s="68">
         <f t="shared" ref="E72:E76" si="56">H72+K72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="96">
+      <c r="F72" s="69">
         <f t="shared" ref="F72:F76" si="57">I72+L72</f>
         <v>0</v>
       </c>
-      <c r="G72" s="97">
+      <c r="G72" s="70">
         <f>DATA!G37</f>
         <v>10</v>
       </c>
-      <c r="H72" s="95">
+      <c r="H72" s="68">
         <f>DATA!I37</f>
         <v>0</v>
       </c>
-      <c r="I72" s="98">
+      <c r="I72" s="71">
         <f>DATA!K37</f>
         <v>0</v>
       </c>
-      <c r="J72" s="94">
+      <c r="J72" s="67">
         <f>DATA!H37</f>
         <v>70</v>
       </c>
-      <c r="K72" s="95">
+      <c r="K72" s="68">
         <f>DATA!J37</f>
         <v>0</v>
       </c>
-      <c r="L72" s="96">
+      <c r="L72" s="69">
         <f>DATA!L37</f>
         <v>0</v>
       </c>
-      <c r="M72" s="97">
+      <c r="M72" s="70">
         <f t="shared" ref="M72:M76" si="58">ROUND(IF(G72=0,0,H72/G72),2)</f>
         <v>0</v>
       </c>
-      <c r="N72" s="96">
+      <c r="N72" s="69">
         <f t="shared" ref="N72:N76" si="59">ROUND(IF(J72=0,0,K72/J72),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="177" t="str">
+      <c r="A73" s="143" t="str">
         <f>DATA!C38</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B73" s="178" t="str">
+      <c r="B73" s="144" t="str">
         <f>DATA!B38</f>
         <v>ФЭП</v>
       </c>
-      <c r="C73" s="179" t="str">
+      <c r="C73" s="145" t="str">
         <f>DATA!F38</f>
         <v>Бухгалтерский учет, анализ и аудит (по направлениям)</v>
       </c>
-      <c r="D73" s="180">
+      <c r="D73" s="146">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
-      <c r="E73" s="181">
+      <c r="E73" s="147">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F73" s="182">
+      <c r="F73" s="148">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="G73" s="183">
+      <c r="G73" s="149">
         <f>DATA!G38</f>
         <v>5</v>
       </c>
-      <c r="H73" s="181">
+      <c r="H73" s="147">
         <f>DATA!I38</f>
         <v>0</v>
       </c>
-      <c r="I73" s="200">
+      <c r="I73" s="166">
         <f>DATA!K38</f>
         <v>0</v>
       </c>
-      <c r="J73" s="180">
+      <c r="J73" s="146">
         <f>DATA!H38</f>
         <v>15</v>
       </c>
-      <c r="K73" s="181">
+      <c r="K73" s="147">
         <f>DATA!J38</f>
         <v>0</v>
       </c>
-      <c r="L73" s="182">
+      <c r="L73" s="148">
         <f>DATA!L38</f>
         <v>0</v>
       </c>
-      <c r="M73" s="183">
+      <c r="M73" s="149">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="N73" s="182">
+      <c r="N73" s="148">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="112" t="str">
+      <c r="A74" s="80" t="str">
         <f>DATA!C39</f>
         <v>Заочная (Дистанционная, Сокращенная)</v>
       </c>
-      <c r="B74" s="113" t="str">
+      <c r="B74" s="81" t="str">
         <f>DATA!B39</f>
         <v>ФЭП</v>
       </c>
-      <c r="C74" s="114" t="str">
+      <c r="C74" s="82" t="str">
         <f>DATA!F39</f>
         <v>Бухгалтерский учет, анализ и аудит (по направлениям)</v>
       </c>
-      <c r="D74" s="115">
+      <c r="D74" s="83">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
-      <c r="E74" s="116">
+      <c r="E74" s="84">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F74" s="117">
+      <c r="F74" s="85">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="G74" s="118">
+      <c r="G74" s="86">
         <f>DATA!G39</f>
         <v>0</v>
       </c>
-      <c r="H74" s="116">
+      <c r="H74" s="84">
         <f>DATA!I39</f>
         <v>0</v>
       </c>
-      <c r="I74" s="119">
+      <c r="I74" s="87">
         <f>DATA!K39</f>
         <v>0</v>
       </c>
-      <c r="J74" s="115">
+      <c r="J74" s="83">
         <f>DATA!H39</f>
         <v>20</v>
       </c>
-      <c r="K74" s="116">
+      <c r="K74" s="84">
         <f>DATA!J39</f>
         <v>0</v>
       </c>
-      <c r="L74" s="117">
+      <c r="L74" s="85">
         <f>DATA!L39</f>
         <v>0</v>
       </c>
-      <c r="M74" s="118">
+      <c r="M74" s="86">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="N74" s="117">
+      <c r="N74" s="85">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="112" t="str">
+      <c r="A75" s="80" t="str">
         <f>DATA!C40</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="B75" s="113" t="str">
+      <c r="B75" s="81" t="str">
         <f>DATA!B40</f>
         <v>ФЭП</v>
       </c>
-      <c r="C75" s="114" t="str">
+      <c r="C75" s="82" t="str">
         <f>DATA!F40</f>
         <v>Маркетинг</v>
       </c>
-      <c r="D75" s="115">
+      <c r="D75" s="83">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
-      <c r="E75" s="116">
+      <c r="E75" s="84">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F75" s="117">
+      <c r="F75" s="85">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="G75" s="118">
+      <c r="G75" s="86">
         <f>DATA!G40</f>
         <v>5</v>
       </c>
-      <c r="H75" s="116">
+      <c r="H75" s="84">
         <f>DATA!I40</f>
         <v>0</v>
       </c>
-      <c r="I75" s="119">
+      <c r="I75" s="87">
         <f>DATA!K40</f>
         <v>0</v>
       </c>
-      <c r="J75" s="115">
+      <c r="J75" s="83">
         <f>DATA!H40</f>
         <v>15</v>
       </c>
-      <c r="K75" s="116">
+      <c r="K75" s="84">
         <f>DATA!J40</f>
         <v>0</v>
       </c>
-      <c r="L75" s="117">
+      <c r="L75" s="85">
         <f>DATA!L40</f>
         <v>0</v>
       </c>
-      <c r="M75" s="118">
+      <c r="M75" s="86">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="N75" s="117">
+      <c r="N75" s="85">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163" t="str">
+      <c r="A76" s="129" t="str">
         <f>DATA!C41</f>
         <v>Заочная (Дистанционная, Сокращенная)</v>
       </c>
-      <c r="B76" s="164" t="str">
+      <c r="B76" s="130" t="str">
         <f>DATA!B41</f>
         <v>ФЭП</v>
       </c>
-      <c r="C76" s="165" t="str">
+      <c r="C76" s="131" t="str">
         <f>DATA!F41</f>
         <v>Маркетинг</v>
       </c>
-      <c r="D76" s="166">
+      <c r="D76" s="132">
         <f t="shared" si="55"/>
         <v>20</v>
       </c>
-      <c r="E76" s="167">
+      <c r="E76" s="133">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F76" s="168">
+      <c r="F76" s="134">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="G76" s="169">
+      <c r="G76" s="135">
         <f>DATA!G41</f>
         <v>0</v>
       </c>
-      <c r="H76" s="167">
+      <c r="H76" s="133">
         <f>DATA!I41</f>
         <v>0</v>
       </c>
-      <c r="I76" s="170">
+      <c r="I76" s="136">
         <f>DATA!K41</f>
         <v>0</v>
       </c>
-      <c r="J76" s="166">
+      <c r="J76" s="132">
         <f>DATA!H41</f>
         <v>20</v>
       </c>
-      <c r="K76" s="167">
+      <c r="K76" s="133">
         <f>DATA!J41</f>
         <v>0</v>
       </c>
-      <c r="L76" s="168">
+      <c r="L76" s="134">
         <f>DATA!L41</f>
         <v>0</v>
       </c>
-      <c r="M76" s="169">
+      <c r="M76" s="135">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="N76" s="168">
+      <c r="N76" s="134">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="143" t="s">
+      <c r="A77" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="171">
+      <c r="B77" s="258"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="137">
         <f>SUM(D70:D72)</f>
         <v>125</v>
       </c>
-      <c r="E77" s="172">
+      <c r="E77" s="138">
         <f t="shared" ref="E77:L77" si="60">SUM(E70:E72)</f>
         <v>0</v>
       </c>
-      <c r="F77" s="173">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="171">
+      <c r="F77" s="139">
+        <f>SUM(F70:F76)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="137">
         <f t="shared" si="60"/>
         <v>10</v>
       </c>
-      <c r="H77" s="172">
+      <c r="H77" s="138">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="I77" s="174">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="175">
+      <c r="I77" s="140">
+        <f>SUM(I70:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="141">
         <f t="shared" si="60"/>
         <v>115</v>
       </c>
-      <c r="K77" s="172">
+      <c r="K77" s="138">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="L77" s="174">
-        <f t="shared" si="60"/>
+      <c r="L77" s="140">
+        <f>SUM(L70:L76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="105" t="s">
+      <c r="A78" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="107">
+      <c r="B78" s="284"/>
+      <c r="C78" s="284"/>
+      <c r="D78" s="75">
         <f>SUM(D58,D66,D77)</f>
         <v>272</v>
       </c>
-      <c r="E78" s="108">
+      <c r="E78" s="76">
         <f t="shared" ref="E78:L78" si="61">SUM(E58,E66,E77)</f>
         <v>0</v>
       </c>
-      <c r="F78" s="109">
+      <c r="F78" s="77">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="G78" s="107">
+      <c r="G78" s="75">
         <f t="shared" si="61"/>
         <v>77</v>
       </c>
-      <c r="H78" s="108">
+      <c r="H78" s="76">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="I78" s="110">
+      <c r="I78" s="78">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="J78" s="111">
+      <c r="J78" s="79">
         <f t="shared" si="61"/>
         <v>195</v>
       </c>
-      <c r="K78" s="108">
+      <c r="K78" s="76">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="L78" s="110">
+      <c r="L78" s="78">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="105" t="s">
+      <c r="A80" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="106"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="107">
+      <c r="B80" s="284"/>
+      <c r="C80" s="284"/>
+      <c r="D80" s="75">
         <f>D48+D78</f>
         <v>736</v>
       </c>
-      <c r="E80" s="108">
+      <c r="E80" s="76">
         <f t="shared" ref="E80:L80" si="62">E48+E78</f>
         <v>8</v>
       </c>
-      <c r="F80" s="109">
+      <c r="F80" s="77">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="G80" s="107">
+      <c r="G80" s="75">
         <f t="shared" si="62"/>
         <v>401</v>
       </c>
-      <c r="H80" s="108">
+      <c r="H80" s="76">
         <f t="shared" si="62"/>
         <v>8</v>
       </c>
-      <c r="I80" s="110">
+      <c r="I80" s="78">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J80" s="111">
+      <c r="J80" s="79">
         <f t="shared" si="62"/>
         <v>335</v>
       </c>
-      <c r="K80" s="108">
+      <c r="K80" s="76">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="L80" s="110">
+      <c r="L80" s="78">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
@@ -7475,7 +7475,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="A28:C28"/>
@@ -7496,17 +7495,18 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7537,123 +7537,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="A1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287"/>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="291" t="s">
+      <c r="A3" s="247"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="302" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292" t="s">
+      <c r="H3" s="300"/>
+      <c r="I3" s="300" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="293"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="287"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="294">
+      <c r="G4" s="303">
         <f ca="1">NOW()</f>
-        <v>43273.47755462963</v>
-      </c>
-      <c r="H4" s="295"/>
-      <c r="I4" s="296">
+        <v>43296.521391203707</v>
+      </c>
+      <c r="H4" s="304"/>
+      <c r="I4" s="305">
         <f ca="1">NOW()</f>
-        <v>43273.47755462963</v>
-      </c>
-      <c r="J4" s="297"/>
+        <v>43296.521391203707</v>
+      </c>
+      <c r="J4" s="306"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="293" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="288" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="288" t="s">
+      <c r="E6" s="289"/>
+      <c r="F6" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="289"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="244" t="s">
+      <c r="G6" s="286"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="245"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="246"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248" t="s">
+      <c r="A7" s="292"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="249" t="s">
+      <c r="E7" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="251" t="s">
+      <c r="G7" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="252" t="s">
+      <c r="H7" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="248" t="s">
+      <c r="I7" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="249" t="s">
+      <c r="J7" s="209" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7691,95 +7691,95 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>ROUND(IF(D8=0,0,G8/D8),2)</f>
+        <f t="shared" ref="I8:I17" si="0">ROUND(IF(D8=0,0,G8/D8),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="J8" s="4">
-        <f>ROUND(IF(E8=0,0,H8/E8),2)</f>
+        <f t="shared" ref="J8:J17" si="1">ROUND(IF(E8=0,0,H8/E8),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="222" t="str">
+      <c r="A9" s="188" t="str">
         <f>DATA!B3</f>
         <v>ИФ</v>
       </c>
-      <c r="B9" s="223" t="str">
+      <c r="B9" s="189" t="str">
         <f>DATA!C3</f>
         <v>Дневная</v>
       </c>
-      <c r="C9" s="224" t="str">
+      <c r="C9" s="190" t="str">
         <f>DATA!F3</f>
         <v>Технология машиностроения</v>
       </c>
-      <c r="D9" s="225">
+      <c r="D9" s="191">
         <f>DATA!G3</f>
         <v>16</v>
       </c>
-      <c r="E9" s="226">
+      <c r="E9" s="192">
         <f>DATA!H3</f>
         <v>4</v>
       </c>
-      <c r="F9" s="225">
-        <f t="shared" ref="F9:F11" si="0">G9+H9</f>
+      <c r="F9" s="191">
+        <f t="shared" ref="F9:F11" si="2">G9+H9</f>
         <v>3</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="193">
         <f>DATA!I3</f>
         <v>3</v>
       </c>
-      <c r="H9" s="226">
+      <c r="H9" s="192">
         <f>DATA!J3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="228">
-        <f>ROUND(IF(D9=0,0,G9/D9),2)</f>
+      <c r="I9" s="194">
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="J9" s="226">
-        <f>ROUND(IF(E9=0,0,H9/E9),2)</f>
+      <c r="J9" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="222" t="str">
+      <c r="A10" s="188" t="str">
         <f>DATA!B4</f>
         <v>ИФ</v>
       </c>
-      <c r="B10" s="223" t="str">
+      <c r="B10" s="189" t="str">
         <f>DATA!C4</f>
         <v>Дневная</v>
       </c>
-      <c r="C10" s="224" t="str">
+      <c r="C10" s="190" t="str">
         <f>DATA!F4</f>
         <v>Информационные системы и технологии (по направлениям)</v>
       </c>
-      <c r="D10" s="225">
+      <c r="D10" s="191">
         <f>DATA!G4</f>
         <v>20</v>
       </c>
-      <c r="E10" s="226">
+      <c r="E10" s="192">
         <f>DATA!H4</f>
         <v>5</v>
       </c>
-      <c r="F10" s="225">
-        <f t="shared" si="0"/>
+      <c r="F10" s="191">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="193">
         <f>DATA!I4</f>
         <v>2</v>
       </c>
-      <c r="H10" s="226">
+      <c r="H10" s="192">
         <f>DATA!J4</f>
         <v>0</v>
       </c>
-      <c r="I10" s="228">
-        <f>ROUND(IF(D10=0,0,G10/D10),2)</f>
+      <c r="I10" s="194">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J10" s="226">
-        <f>ROUND(IF(E10=0,0,H10/E10),2)</f>
+      <c r="J10" s="192">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G11" s="8">
@@ -7817,11 +7817,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f>ROUND(IF(D11=0,0,G11/D11),2)</f>
+        <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
       <c r="J11" s="9">
-        <f>ROUND(IF(E11=0,0,H11/E11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F12" si="1">G12+H12</f>
+        <f t="shared" ref="F12" si="3">G12+H12</f>
         <v>0</v>
       </c>
       <c r="G12" s="8">
@@ -7859,11 +7859,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="10">
-        <f>ROUND(IF(D12=0,0,G12/D12),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <f>ROUND(IF(E12=0,0,H12/E12),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13" si="2">G13+H13</f>
+        <f t="shared" ref="F13" si="4">G13+H13</f>
         <v>0</v>
       </c>
       <c r="G13" s="8">
@@ -7901,11 +7901,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <f>ROUND(IF(D13=0,0,G13/D13),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f>ROUND(IF(E13=0,0,H13/E13),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14" si="3">G14+H14</f>
+        <f t="shared" ref="F14" si="5">G14+H14</f>
         <v>0</v>
       </c>
       <c r="G14" s="8">
@@ -7943,11 +7943,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="10">
-        <f>ROUND(IF(D14=0,0,G14/D14),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <f>ROUND(IF(E14=0,0,H14/E14),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ref="F15:F17" si="4">G15+H15</f>
+        <f t="shared" ref="F15:F17" si="6">G15+H15</f>
         <v>0</v>
       </c>
       <c r="G15" s="8">
@@ -7985,11 +7985,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="10">
-        <f>ROUND(IF(D15=0,0,G15/D15),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="9">
-        <f>ROUND(IF(E15=0,0,H15/E15),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
@@ -8027,11 +8027,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="10">
-        <f>ROUND(IF(D16=0,0,G16/D16),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <f>ROUND(IF(E16=0,0,H16/E16),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8048,59 +8048,59 @@
         <f>DATA!F34</f>
         <v>Техническое обеспечение процессов сельскохозяйственного производства</v>
       </c>
-      <c r="D17" s="229">
+      <c r="D17" s="195">
         <f>DATA!G34</f>
         <v>7</v>
       </c>
-      <c r="E17" s="230">
+      <c r="E17" s="196">
         <f>DATA!H34</f>
         <v>16</v>
       </c>
-      <c r="F17" s="229">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="231">
+      <c r="F17" s="195">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="197">
         <f>DATA!I34</f>
         <v>0</v>
       </c>
-      <c r="H17" s="230">
+      <c r="H17" s="196">
         <f>DATA!J34</f>
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <f>ROUND(IF(D17=0,0,G17/D17),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="12">
-        <f>ROUND(IF(E17=0,0,H17/E17),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
       <c r="D18" s="41">
         <f>SUM(D8,D11,D12,D13,D14,D15,D16,D17)</f>
         <v>131</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:H18" si="5">SUM(E8,E11,E12,E13,E14,E15,E16,E17)</f>
+        <f t="shared" ref="E18:H18" si="7">SUM(E8,E11,E12,E13,E14,E15,E16,E17)</f>
         <v>58</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G18" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8138,179 +8138,179 @@
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <f>ROUND(IF(D19=0,0,G19/D19),2)</f>
+        <f t="shared" ref="I19:I30" si="8">ROUND(IF(D19=0,0,G19/D19),2)</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>ROUND(IF(E19=0,0,H19/E19),2)</f>
+        <f t="shared" ref="J19:J30" si="9">ROUND(IF(E19=0,0,H19/E19),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="222" t="str">
+      <c r="A20" s="188" t="str">
         <f>DATA!B7</f>
         <v>ФПП</v>
       </c>
-      <c r="B20" s="223" t="str">
+      <c r="B20" s="189" t="str">
         <f>DATA!C7</f>
         <v>Дневная</v>
       </c>
-      <c r="C20" s="224" t="str">
+      <c r="C20" s="190" t="str">
         <f>DATA!F7</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D20" s="225">
+      <c r="D20" s="191">
         <f>DATA!G7</f>
         <v>16</v>
       </c>
-      <c r="E20" s="253">
+      <c r="E20" s="213">
         <f>DATA!H7</f>
         <v>5</v>
       </c>
-      <c r="F20" s="225">
-        <f t="shared" ref="F20:F29" si="6">G20+H20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="227">
+      <c r="F20" s="191">
+        <f t="shared" ref="F20:F29" si="10">G20+H20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="193">
         <f>DATA!I7</f>
         <v>0</v>
       </c>
-      <c r="H20" s="226">
+      <c r="H20" s="192">
         <f>DATA!J7</f>
         <v>0</v>
       </c>
-      <c r="I20" s="228">
-        <f>ROUND(IF(D20=0,0,G20/D20),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="226">
-        <f>ROUND(IF(E20=0,0,H20/E20),2)</f>
+      <c r="I20" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="222" t="str">
+      <c r="A21" s="188" t="str">
         <f>DATA!B8</f>
         <v>ФПП</v>
       </c>
-      <c r="B21" s="223" t="str">
+      <c r="B21" s="189" t="str">
         <f>DATA!C8</f>
         <v>Дневная</v>
       </c>
-      <c r="C21" s="224" t="str">
+      <c r="C21" s="190" t="str">
         <f>DATA!F8</f>
         <v>Начальное образование</v>
       </c>
-      <c r="D21" s="225">
+      <c r="D21" s="191">
         <f>DATA!G8</f>
         <v>15</v>
       </c>
-      <c r="E21" s="253">
+      <c r="E21" s="213">
         <f>DATA!H8</f>
         <v>5</v>
       </c>
-      <c r="F21" s="225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="227">
+      <c r="F21" s="191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="193">
         <f>DATA!I8</f>
         <v>0</v>
       </c>
-      <c r="H21" s="226">
+      <c r="H21" s="192">
         <f>DATA!J8</f>
         <v>0</v>
       </c>
-      <c r="I21" s="228">
-        <f>ROUND(IF(D21=0,0,G21/D21),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="226">
-        <f>ROUND(IF(E21=0,0,H21/E21),2)</f>
+      <c r="I21" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="222" t="str">
+      <c r="A22" s="188" t="str">
         <f>DATA!B9</f>
         <v>ФПП</v>
       </c>
-      <c r="B22" s="223" t="str">
+      <c r="B22" s="189" t="str">
         <f>DATA!C9</f>
         <v>Дневная</v>
       </c>
-      <c r="C22" s="224" t="str">
+      <c r="C22" s="190" t="str">
         <f>DATA!F9</f>
         <v>Практическая психология</v>
       </c>
-      <c r="D22" s="225">
+      <c r="D22" s="191">
         <f>DATA!G9</f>
         <v>10</v>
       </c>
-      <c r="E22" s="253">
+      <c r="E22" s="213">
         <f>DATA!H9</f>
         <v>10</v>
       </c>
-      <c r="F22" s="225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="227">
+      <c r="F22" s="191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="193">
         <f>DATA!I9</f>
         <v>0</v>
       </c>
-      <c r="H22" s="226">
+      <c r="H22" s="192">
         <f>DATA!J9</f>
         <v>0</v>
       </c>
-      <c r="I22" s="228">
-        <f>ROUND(IF(D22=0,0,G22/D22),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="226">
-        <f>ROUND(IF(E22=0,0,H22/E22),2)</f>
+      <c r="I22" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="222" t="str">
+      <c r="A23" s="188" t="str">
         <f>DATA!B10</f>
         <v>ФПП</v>
       </c>
-      <c r="B23" s="223" t="str">
+      <c r="B23" s="189" t="str">
         <f>DATA!C10</f>
         <v>Дневная</v>
       </c>
-      <c r="C23" s="224" t="str">
+      <c r="C23" s="190" t="str">
         <f>DATA!F10</f>
         <v>Социальная педагогика</v>
       </c>
-      <c r="D23" s="225">
+      <c r="D23" s="191">
         <f>DATA!G10</f>
         <v>15</v>
       </c>
-      <c r="E23" s="253">
+      <c r="E23" s="213">
         <f>DATA!H10</f>
         <v>5</v>
       </c>
-      <c r="F23" s="225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="227">
+      <c r="F23" s="191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="193">
         <f>DATA!I10</f>
         <v>0</v>
       </c>
-      <c r="H23" s="226">
+      <c r="H23" s="192">
         <f>DATA!J10</f>
         <v>0</v>
       </c>
-      <c r="I23" s="228">
-        <f>ROUND(IF(D23=0,0,G23/D23),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="226">
-        <f>ROUND(IF(E23=0,0,H23/E23),2)</f>
+      <c r="I23" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G24" s="8">
@@ -8348,11 +8348,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <f>ROUND(IF(D24=0,0,G24/D24),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J24" s="9">
-        <f>ROUND(IF(E24=0,0,H24/E24),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G25" s="8">
@@ -8390,11 +8390,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="10">
-        <f>ROUND(IF(D25=0,0,G25/D25),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J25" s="9">
-        <f>ROUND(IF(E25=0,0,H25/E25),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8420,7 +8420,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G26" s="8">
@@ -8432,11 +8432,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="10">
-        <f>ROUND(IF(D26=0,0,G26/D26),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J26" s="9">
-        <f>ROUND(IF(E26=0,0,H26/E26),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G27" s="8">
@@ -8474,95 +8474,95 @@
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f>ROUND(IF(D27=0,0,G27/D27),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J27" s="9">
-        <f>ROUND(IF(E27=0,0,H27/E27),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="222" t="str">
+      <c r="A28" s="188" t="str">
         <f>DATA!B28</f>
         <v>ФПП</v>
       </c>
-      <c r="B28" s="223" t="str">
+      <c r="B28" s="189" t="str">
         <f>DATA!C28</f>
         <v>Заочная</v>
       </c>
-      <c r="C28" s="224" t="str">
+      <c r="C28" s="190" t="str">
         <f>DATA!F28</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D28" s="225">
+      <c r="D28" s="191">
         <f>DATA!G28</f>
         <v>10</v>
       </c>
-      <c r="E28" s="253">
+      <c r="E28" s="213">
         <f>DATA!H28</f>
         <v>10</v>
       </c>
-      <c r="F28" s="225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="227">
+      <c r="F28" s="191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="193">
         <f>DATA!I28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="226">
+      <c r="H28" s="192">
         <f>DATA!J28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="228">
-        <f>ROUND(IF(D28=0,0,G28/D28),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="226">
-        <f>ROUND(IF(E28=0,0,H28/E28),2)</f>
+      <c r="I28" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="222" t="str">
+      <c r="A29" s="188" t="str">
         <f>DATA!B29</f>
         <v>ФПП</v>
       </c>
-      <c r="B29" s="223" t="str">
+      <c r="B29" s="189" t="str">
         <f>DATA!C29</f>
         <v>Заочная</v>
       </c>
-      <c r="C29" s="224" t="str">
+      <c r="C29" s="190" t="str">
         <f>DATA!F29</f>
         <v>Практическая психология</v>
       </c>
-      <c r="D29" s="225">
+      <c r="D29" s="191">
         <f>DATA!G29</f>
         <v>5</v>
       </c>
-      <c r="E29" s="253">
+      <c r="E29" s="213">
         <f>DATA!H29</f>
         <v>15</v>
       </c>
-      <c r="F29" s="225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="227">
+      <c r="F29" s="191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="193">
         <f>DATA!I29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="226">
+      <c r="H29" s="192">
         <f>DATA!J29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="228">
-        <f>ROUND(IF(D29=0,0,G29/D29),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="226">
-        <f>ROUND(IF(E29=0,0,H29/E29),2)</f>
+      <c r="I29" s="194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="192">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8579,896 +8579,896 @@
         <f>DATA!F35</f>
         <v>Дошкольное образование</v>
       </c>
-      <c r="D30" s="229">
+      <c r="D30" s="195">
         <f>DATA!G35</f>
         <v>15</v>
       </c>
-      <c r="E30" s="255">
+      <c r="E30" s="215">
         <f>DATA!H35</f>
         <v>8</v>
       </c>
-      <c r="F30" s="229">
-        <f t="shared" ref="F30" si="7">G30+H30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="231">
+      <c r="F30" s="195">
+        <f t="shared" ref="F30" si="11">G30+H30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="197">
         <f>DATA!I35</f>
         <v>0</v>
       </c>
-      <c r="H30" s="230">
+      <c r="H30" s="196">
         <f>DATA!J35</f>
         <v>0</v>
       </c>
       <c r="I30" s="13">
-        <f>ROUND(IF(D30=0,0,G30/D30),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J30" s="12">
-        <f>ROUND(IF(E30=0,0,H30/E30),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="279">
+      <c r="B31" s="290"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="239">
         <f>SUM(D19,D24,D25,D26,D27,D30)</f>
         <v>144</v>
       </c>
-      <c r="E31" s="280">
-        <f t="shared" ref="E31:H31" si="8">SUM(E19,E24,E25,E26,E27,E30)</f>
+      <c r="E31" s="240">
+        <f t="shared" ref="E31:H31" si="12">SUM(E19,E24,E25,E26,E27,E30)</f>
         <v>65</v>
       </c>
-      <c r="F31" s="279">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="281">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="282">
-        <f t="shared" si="8"/>
+      <c r="F31" s="239">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="241">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="242">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="256" t="str">
+      <c r="A32" s="216" t="str">
         <f>DATA!B14</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="B32" s="257" t="str">
+      <c r="B32" s="217" t="str">
         <f>DATA!C14</f>
         <v>Дневная</v>
       </c>
-      <c r="C32" s="258" t="str">
+      <c r="C32" s="218" t="str">
         <f>DATA!F14</f>
         <v>ФСГЯ (Современные иностранные языки, Иностранный язык)</v>
       </c>
-      <c r="D32" s="259">
+      <c r="D32" s="219">
         <f>DATA!G14</f>
         <v>63</v>
       </c>
-      <c r="E32" s="262">
+      <c r="E32" s="222">
         <f>DATA!H14</f>
         <v>30</v>
       </c>
-      <c r="F32" s="263">
+      <c r="F32" s="223">
         <f>G32+H32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="261">
+      <c r="G32" s="221">
         <f>DATA!I14</f>
         <v>0</v>
       </c>
-      <c r="H32" s="260">
+      <c r="H32" s="220">
         <f>DATA!J14</f>
         <v>0</v>
       </c>
-      <c r="I32" s="259">
-        <f>ROUND(IF(D32=0,0,G32/D32),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="262">
-        <f>ROUND(IF(E32=0,0,H32/E32),2)</f>
+      <c r="I32" s="219">
+        <f t="shared" ref="I32:J36" si="13">ROUND(IF(D32=0,0,G32/D32),2)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="222">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="215" t="str">
+      <c r="A33" s="181" t="str">
         <f>DATA!B15</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="B33" s="216" t="str">
+      <c r="B33" s="182" t="str">
         <f>DATA!C15</f>
         <v>Дневная</v>
       </c>
-      <c r="C33" s="217" t="str">
+      <c r="C33" s="183" t="str">
         <f>DATA!F15</f>
         <v>Современные иностранные языки (по направлениям)</v>
       </c>
-      <c r="D33" s="218">
+      <c r="D33" s="184">
         <f>DATA!G15</f>
         <v>48</v>
       </c>
-      <c r="E33" s="219">
+      <c r="E33" s="185">
         <f>DATA!H15</f>
         <v>25</v>
       </c>
-      <c r="F33" s="221">
-        <f t="shared" ref="F33:F36" si="9">G33+H33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="220">
+      <c r="F33" s="187">
+        <f t="shared" ref="F33:F36" si="14">G33+H33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="186">
         <f>DATA!I15</f>
         <v>0</v>
       </c>
-      <c r="H33" s="254">
+      <c r="H33" s="214">
         <f>DATA!J15</f>
         <v>0</v>
       </c>
-      <c r="I33" s="225">
-        <f>ROUND(IF(D33=0,0,G33/D33),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="226">
-        <f>ROUND(IF(E33=0,0,H33/E33),2)</f>
+      <c r="I33" s="191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="192">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="215" t="str">
+      <c r="A34" s="181" t="str">
         <f>DATA!B16</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="B34" s="216" t="str">
+      <c r="B34" s="182" t="str">
         <f>DATA!C16</f>
         <v>Дневная</v>
       </c>
-      <c r="C34" s="217" t="str">
+      <c r="C34" s="183" t="str">
         <f>DATA!F16</f>
         <v>Иностранный язык (английский)</v>
       </c>
-      <c r="D34" s="218">
+      <c r="D34" s="184">
         <f>DATA!G16</f>
         <v>15</v>
       </c>
-      <c r="E34" s="219">
+      <c r="E34" s="185">
         <f>DATA!H16</f>
         <v>5</v>
       </c>
-      <c r="F34" s="221">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="220">
+      <c r="F34" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="186">
         <f>DATA!I16</f>
         <v>0</v>
       </c>
-      <c r="H34" s="254">
+      <c r="H34" s="214">
         <f>DATA!J16</f>
         <v>0</v>
       </c>
-      <c r="I34" s="225">
-        <f>ROUND(IF(D34=0,0,G34/D34),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="226">
-        <f>ROUND(IF(E34=0,0,H34/E34),2)</f>
+      <c r="I34" s="191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="192">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="264" t="str">
+      <c r="A35" s="224" t="str">
         <f>DATA!B17</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="B35" s="265" t="str">
+      <c r="B35" s="225" t="str">
         <f>DATA!C17</f>
         <v>Дневная</v>
       </c>
-      <c r="C35" s="266" t="str">
+      <c r="C35" s="226" t="str">
         <f>DATA!F17</f>
         <v>Белорусский язык и литература. Иностранный язык (английский)</v>
       </c>
-      <c r="D35" s="267">
+      <c r="D35" s="227">
         <f>DATA!G17</f>
         <v>15</v>
       </c>
-      <c r="E35" s="270">
+      <c r="E35" s="230">
         <f>DATA!H17</f>
         <v>5</v>
       </c>
-      <c r="F35" s="271">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="269">
+      <c r="F35" s="231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="229">
         <f>DATA!I17</f>
         <v>0</v>
       </c>
-      <c r="H35" s="268">
+      <c r="H35" s="228">
         <f>DATA!J17</f>
         <v>0</v>
       </c>
-      <c r="I35" s="232">
-        <f>ROUND(IF(D35=0,0,G35/D35),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="233">
-        <f>ROUND(IF(E35=0,0,H35/E35),2)</f>
+      <c r="I35" s="198">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="199">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="272" t="str">
+      <c r="A36" s="232" t="str">
         <f>DATA!B18</f>
         <v>ФСГЯ</v>
       </c>
-      <c r="B36" s="273" t="str">
+      <c r="B36" s="233" t="str">
         <f>DATA!C18</f>
         <v>Дневная</v>
       </c>
-      <c r="C36" s="274" t="str">
+      <c r="C36" s="234" t="str">
         <f>DATA!F18</f>
         <v>Иностранные языки (Немецкий, Английский)</v>
       </c>
-      <c r="D36" s="275">
+      <c r="D36" s="235">
         <f>DATA!G18</f>
         <v>18</v>
       </c>
-      <c r="E36" s="278">
+      <c r="E36" s="238">
         <f>DATA!H18</f>
         <v>2</v>
       </c>
-      <c r="F36" s="285">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="277">
+      <c r="F36" s="245">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="237">
         <f>DATA!I18</f>
         <v>0</v>
       </c>
-      <c r="H36" s="276">
+      <c r="H36" s="236">
         <f>DATA!J18</f>
         <v>0</v>
       </c>
-      <c r="I36" s="284">
-        <f>ROUND(IF(D36=0,0,G36/D36),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="283">
-        <f>ROUND(IF(E36=0,0,H36/E36),2)</f>
+      <c r="I36" s="244">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="243">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="279">
+      <c r="B37" s="290"/>
+      <c r="C37" s="290"/>
+      <c r="D37" s="239">
         <f>SUM(D32,D35,D36)</f>
         <v>96</v>
       </c>
-      <c r="E37" s="280">
-        <f t="shared" ref="E37:H37" si="10">SUM(E32,E35,E36)</f>
+      <c r="E37" s="240">
+        <f t="shared" ref="E37:H37" si="15">SUM(E32,E35,E36)</f>
         <v>37</v>
       </c>
-      <c r="F37" s="279">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="281">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="282">
-        <f t="shared" si="10"/>
+      <c r="F37" s="239">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="241">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="242">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="256" t="str">
+      <c r="A38" s="216" t="str">
         <f>DATA!B19</f>
         <v>ФЭП</v>
       </c>
-      <c r="B38" s="257" t="str">
+      <c r="B38" s="217" t="str">
         <f>DATA!C19</f>
         <v>Дневная</v>
       </c>
-      <c r="C38" s="258" t="str">
+      <c r="C38" s="218" t="str">
         <f>DATA!F19</f>
         <v>ФЭП (Бухгалтерский учёт анализ и аудит,  Электронный маркетинг)</v>
       </c>
-      <c r="D38" s="259">
+      <c r="D38" s="219">
         <f>DATA!G19</f>
         <v>20</v>
       </c>
-      <c r="E38" s="260">
+      <c r="E38" s="220">
         <f>DATA!H19</f>
         <v>20</v>
       </c>
-      <c r="F38" s="259">
+      <c r="F38" s="219">
         <f>G38+H38</f>
         <v>0</v>
       </c>
-      <c r="G38" s="261">
+      <c r="G38" s="221">
         <f>DATA!I19</f>
         <v>0</v>
       </c>
-      <c r="H38" s="262">
+      <c r="H38" s="222">
         <f>DATA!J19</f>
         <v>0</v>
       </c>
-      <c r="I38" s="263">
-        <f>ROUND(IF(D38=0,0,G38/D38),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="262">
-        <f>ROUND(IF(E38=0,0,H38/E38),2)</f>
+      <c r="I38" s="223">
+        <f t="shared" ref="I38:I50" si="16">ROUND(IF(D38=0,0,G38/D38),2)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="222">
+        <f t="shared" ref="J38:J50" si="17">ROUND(IF(E38=0,0,H38/E38),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="222" t="str">
+      <c r="A39" s="188" t="str">
         <f>DATA!B20</f>
         <v>ФЭП</v>
       </c>
-      <c r="B39" s="223" t="str">
+      <c r="B39" s="189" t="str">
         <f>DATA!C20</f>
         <v>Дневная</v>
       </c>
-      <c r="C39" s="224" t="str">
+      <c r="C39" s="190" t="str">
         <f>DATA!F20</f>
         <v>Бухгалтерский учет, анализ и аудит</v>
       </c>
-      <c r="D39" s="225">
+      <c r="D39" s="191">
         <f>DATA!G20</f>
         <v>10</v>
       </c>
-      <c r="E39" s="253">
+      <c r="E39" s="213">
         <f>DATA!H20</f>
         <v>10</v>
       </c>
-      <c r="F39" s="225">
-        <f t="shared" ref="F39:F43" si="11">G39+H39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="227">
+      <c r="F39" s="191">
+        <f t="shared" ref="F39:F43" si="18">G39+H39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="193">
         <f>DATA!I20</f>
         <v>0</v>
       </c>
-      <c r="H39" s="226">
+      <c r="H39" s="192">
         <f>DATA!J20</f>
         <v>0</v>
       </c>
-      <c r="I39" s="228">
-        <f>ROUND(IF(D39=0,0,G39/D39),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="226">
-        <f>ROUND(IF(E39=0,0,H39/E39),2)</f>
+      <c r="I39" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="222" t="str">
+      <c r="A40" s="188" t="str">
         <f>DATA!B21</f>
         <v>ФЭП</v>
       </c>
-      <c r="B40" s="223" t="str">
+      <c r="B40" s="189" t="str">
         <f>DATA!C21</f>
         <v>Дневная</v>
       </c>
-      <c r="C40" s="224" t="str">
+      <c r="C40" s="190" t="str">
         <f>DATA!F21</f>
         <v>Электронный маркетинг</v>
       </c>
-      <c r="D40" s="225">
+      <c r="D40" s="191">
         <f>DATA!G21</f>
         <v>10</v>
       </c>
-      <c r="E40" s="253">
+      <c r="E40" s="213">
         <f>DATA!H21</f>
         <v>10</v>
       </c>
-      <c r="F40" s="225">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="227">
+      <c r="F40" s="191">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="193">
         <f>DATA!I21</f>
         <v>0</v>
       </c>
-      <c r="H40" s="226">
+      <c r="H40" s="192">
         <f>DATA!J21</f>
         <v>0</v>
       </c>
-      <c r="I40" s="228">
-        <f>ROUND(IF(D40=0,0,G40/D40),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="226">
-        <f>ROUND(IF(E40=0,0,H40/E40),2)</f>
+      <c r="I40" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="264" t="str">
+      <c r="A41" s="224" t="str">
         <f>DATA!B22</f>
         <v>ФЭП</v>
       </c>
-      <c r="B41" s="265" t="str">
+      <c r="B41" s="225" t="str">
         <f>DATA!C22</f>
         <v>Дневная</v>
       </c>
-      <c r="C41" s="266" t="str">
+      <c r="C41" s="226" t="str">
         <f>DATA!F22</f>
         <v>ФЭП (Правоведение, Экономическое право)</v>
       </c>
-      <c r="D41" s="267">
+      <c r="D41" s="227">
         <f>DATA!G22</f>
         <v>0</v>
       </c>
-      <c r="E41" s="268">
+      <c r="E41" s="228">
         <f>DATA!H22</f>
         <v>40</v>
       </c>
-      <c r="F41" s="232">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="269">
+      <c r="F41" s="198">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="229">
         <f>DATA!I22</f>
         <v>0</v>
       </c>
-      <c r="H41" s="270">
+      <c r="H41" s="230">
         <f>DATA!J22</f>
         <v>0</v>
       </c>
-      <c r="I41" s="234">
-        <f>ROUND(IF(D41=0,0,G41/D41),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="233">
-        <f>ROUND(IF(E41=0,0,H41/E41),2)</f>
+      <c r="I41" s="200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="199">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="222" t="str">
+      <c r="A42" s="188" t="str">
         <f>DATA!B23</f>
         <v>ФЭП</v>
       </c>
-      <c r="B42" s="223" t="str">
+      <c r="B42" s="189" t="str">
         <f>DATA!C23</f>
         <v>Дневная</v>
       </c>
-      <c r="C42" s="224" t="str">
+      <c r="C42" s="190" t="str">
         <f>DATA!F23</f>
         <v>Правоведение</v>
       </c>
-      <c r="D42" s="225">
+      <c r="D42" s="191">
         <f>DATA!G23</f>
         <v>0</v>
       </c>
-      <c r="E42" s="253">
+      <c r="E42" s="213">
         <f>DATA!H23</f>
         <v>20</v>
       </c>
-      <c r="F42" s="225">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="227">
+      <c r="F42" s="191">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="193">
         <f>DATA!I23</f>
         <v>0</v>
       </c>
-      <c r="H42" s="226">
+      <c r="H42" s="192">
         <f>DATA!J23</f>
         <v>0</v>
       </c>
-      <c r="I42" s="228">
-        <f>ROUND(IF(D42=0,0,G42/D42),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="226">
-        <f>ROUND(IF(E42=0,0,H42/E42),2)</f>
+      <c r="I42" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="222" t="str">
+      <c r="A43" s="188" t="str">
         <f>DATA!B24</f>
         <v>ФЭП</v>
       </c>
-      <c r="B43" s="223" t="str">
+      <c r="B43" s="189" t="str">
         <f>DATA!C24</f>
         <v>Дневная</v>
       </c>
-      <c r="C43" s="224" t="str">
+      <c r="C43" s="190" t="str">
         <f>DATA!F24</f>
         <v>Экономическое право</v>
       </c>
-      <c r="D43" s="225">
+      <c r="D43" s="191">
         <f>DATA!G24</f>
         <v>0</v>
       </c>
-      <c r="E43" s="253">
+      <c r="E43" s="213">
         <f>DATA!H24</f>
         <v>20</v>
       </c>
-      <c r="F43" s="225">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="227">
+      <c r="F43" s="191">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="193">
         <f>DATA!I24</f>
         <v>0</v>
       </c>
-      <c r="H43" s="226">
+      <c r="H43" s="192">
         <f>DATA!J24</f>
         <v>0</v>
       </c>
-      <c r="I43" s="228">
-        <f>ROUND(IF(D43=0,0,G43/D43),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="226">
-        <f>ROUND(IF(E43=0,0,H43/E43),2)</f>
+      <c r="I43" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="235" t="str">
+      <c r="A44" s="201" t="str">
         <f>DATA!B30</f>
         <v>ФЭП</v>
       </c>
-      <c r="B44" s="236" t="str">
+      <c r="B44" s="202" t="str">
         <f>DATA!C30</f>
         <v>Заочная</v>
       </c>
-      <c r="C44" s="237" t="str">
+      <c r="C44" s="203" t="str">
         <f>DATA!F30</f>
         <v>Правоведение</v>
       </c>
-      <c r="D44" s="238">
+      <c r="D44" s="204">
         <f>DATA!G30</f>
         <v>0</v>
       </c>
-      <c r="E44" s="286">
+      <c r="E44" s="246">
         <f>DATA!H30</f>
         <v>20</v>
       </c>
-      <c r="F44" s="238">
-        <f t="shared" ref="F44" si="12">G44+H44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="240">
+      <c r="F44" s="204">
+        <f t="shared" ref="F44" si="19">G44+H44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="206">
         <f>DATA!I30</f>
         <v>0</v>
       </c>
-      <c r="H44" s="239">
+      <c r="H44" s="205">
         <f>DATA!J30</f>
         <v>0</v>
       </c>
-      <c r="I44" s="241">
-        <f>ROUND(IF(D44=0,0,G44/D44),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="239">
-        <f>ROUND(IF(E44=0,0,H44/E44),2)</f>
+      <c r="I44" s="207">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="205">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="235" t="str">
+      <c r="A45" s="201" t="str">
         <f>DATA!B36</f>
         <v>ФЭП</v>
       </c>
-      <c r="B45" s="236" t="str">
+      <c r="B45" s="202" t="str">
         <f>DATA!C36</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="C45" s="237" t="str">
+      <c r="C45" s="203" t="str">
         <f>DATA!F36</f>
         <v>Правоведение</v>
       </c>
-      <c r="D45" s="238">
+      <c r="D45" s="204">
         <f>DATA!G36</f>
         <v>0</v>
       </c>
-      <c r="E45" s="286">
+      <c r="E45" s="246">
         <f>DATA!H36</f>
         <v>25</v>
       </c>
-      <c r="F45" s="238">
-        <f t="shared" ref="F45" si="13">G45+H45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="240">
+      <c r="F45" s="204">
+        <f t="shared" ref="F45" si="20">G45+H45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="206">
         <f>DATA!I36</f>
         <v>0</v>
       </c>
-      <c r="H45" s="239">
+      <c r="H45" s="205">
         <f>DATA!J36</f>
         <v>0</v>
       </c>
-      <c r="I45" s="241">
-        <f>ROUND(IF(D45=0,0,G45/D45),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="239">
-        <f>ROUND(IF(E45=0,0,H45/E45),2)</f>
+      <c r="I45" s="207">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="205">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="235" t="str">
+      <c r="A46" s="201" t="str">
         <f>DATA!B37</f>
         <v>ФЭП</v>
       </c>
-      <c r="B46" s="236" t="str">
+      <c r="B46" s="202" t="str">
         <f>DATA!C37</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="C46" s="237" t="str">
+      <c r="C46" s="203" t="str">
         <f>DATA!F37</f>
         <v>ФЭП (Бухгалтерский учет, анализ и аудит (по направлениям), Маркетинг) - общий конкурс</v>
       </c>
-      <c r="D46" s="238">
+      <c r="D46" s="204">
         <f>DATA!G37</f>
         <v>10</v>
       </c>
-      <c r="E46" s="286">
+      <c r="E46" s="246">
         <f>DATA!H37</f>
         <v>70</v>
       </c>
-      <c r="F46" s="238">
-        <f t="shared" ref="F46:F49" si="14">G46+H46</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="240">
+      <c r="F46" s="204">
+        <f t="shared" ref="F46:F49" si="21">G46+H46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="206">
         <f>DATA!I37</f>
         <v>0</v>
       </c>
-      <c r="H46" s="239">
+      <c r="H46" s="205">
         <f>DATA!J37</f>
         <v>0</v>
       </c>
-      <c r="I46" s="241">
-        <f>ROUND(IF(D46=0,0,G46/D46),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="239">
-        <f>ROUND(IF(E46=0,0,H46/E46),2)</f>
+      <c r="I46" s="207">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="205">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="222" t="str">
+      <c r="A47" s="188" t="str">
         <f>DATA!B38</f>
         <v>ФЭП</v>
       </c>
-      <c r="B47" s="223" t="str">
+      <c r="B47" s="189" t="str">
         <f>DATA!C38</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="C47" s="224" t="str">
+      <c r="C47" s="190" t="str">
         <f>DATA!F38</f>
         <v>Бухгалтерский учет, анализ и аудит (по направлениям)</v>
       </c>
-      <c r="D47" s="225">
+      <c r="D47" s="191">
         <f>DATA!G38</f>
         <v>5</v>
       </c>
-      <c r="E47" s="253">
+      <c r="E47" s="213">
         <f>DATA!H38</f>
         <v>15</v>
       </c>
-      <c r="F47" s="225">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="227">
+      <c r="F47" s="191">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="193">
         <f>DATA!I38</f>
         <v>0</v>
       </c>
-      <c r="H47" s="226">
+      <c r="H47" s="192">
         <f>DATA!J38</f>
         <v>0</v>
       </c>
-      <c r="I47" s="228">
-        <f>ROUND(IF(D47=0,0,G47/D47),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="226">
-        <f>ROUND(IF(E47=0,0,H47/E47),2)</f>
+      <c r="I47" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="222" t="str">
+      <c r="A48" s="188" t="str">
         <f>DATA!B39</f>
         <v>ФЭП</v>
       </c>
-      <c r="B48" s="223" t="str">
+      <c r="B48" s="189" t="str">
         <f>DATA!C39</f>
         <v>Заочная (Дистанционная, Сокращенная)</v>
       </c>
-      <c r="C48" s="224" t="str">
+      <c r="C48" s="190" t="str">
         <f>DATA!F39</f>
         <v>Бухгалтерский учет, анализ и аудит (по направлениям)</v>
       </c>
-      <c r="D48" s="225">
+      <c r="D48" s="191">
         <f>DATA!G39</f>
         <v>0</v>
       </c>
-      <c r="E48" s="253">
+      <c r="E48" s="213">
         <f>DATA!H39</f>
         <v>20</v>
       </c>
-      <c r="F48" s="225">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="227">
+      <c r="F48" s="191">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="193">
         <f>DATA!I39</f>
         <v>0</v>
       </c>
-      <c r="H48" s="226">
+      <c r="H48" s="192">
         <f>DATA!J39</f>
         <v>0</v>
       </c>
-      <c r="I48" s="228">
-        <f>ROUND(IF(D48=0,0,G48/D48),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="226">
-        <f>ROUND(IF(E48=0,0,H48/E48),2)</f>
+      <c r="I48" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="222" t="str">
+      <c r="A49" s="188" t="str">
         <f>DATA!B40</f>
         <v>ФЭП</v>
       </c>
-      <c r="B49" s="223" t="str">
+      <c r="B49" s="189" t="str">
         <f>DATA!C40</f>
         <v>Заочная (Сокращенная)</v>
       </c>
-      <c r="C49" s="224" t="str">
+      <c r="C49" s="190" t="str">
         <f>DATA!F40</f>
         <v>Маркетинг</v>
       </c>
-      <c r="D49" s="225">
+      <c r="D49" s="191">
         <f>DATA!G40</f>
         <v>5</v>
       </c>
-      <c r="E49" s="253">
+      <c r="E49" s="213">
         <f>DATA!H40</f>
         <v>15</v>
       </c>
-      <c r="F49" s="225">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="227">
+      <c r="F49" s="191">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="193">
         <f>DATA!I40</f>
         <v>0</v>
       </c>
-      <c r="H49" s="226">
+      <c r="H49" s="192">
         <f>DATA!J40</f>
         <v>0</v>
       </c>
-      <c r="I49" s="228">
-        <f>ROUND(IF(D49=0,0,G49/D49),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="226">
-        <f>ROUND(IF(E49=0,0,H49/E49),2)</f>
+      <c r="I49" s="194">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="192">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="298" t="str">
+      <c r="A50" s="248" t="str">
         <f>DATA!B41</f>
         <v>ФЭП</v>
       </c>
-      <c r="B50" s="299" t="str">
+      <c r="B50" s="249" t="str">
         <f>DATA!C41</f>
         <v>Заочная (Дистанционная, Сокращенная)</v>
       </c>
-      <c r="C50" s="300" t="str">
+      <c r="C50" s="250" t="str">
         <f>DATA!F41</f>
         <v>Маркетинг</v>
       </c>
-      <c r="D50" s="301">
+      <c r="D50" s="251">
         <f>DATA!G41</f>
         <v>0</v>
       </c>
-      <c r="E50" s="302">
+      <c r="E50" s="252">
         <f>DATA!H41</f>
         <v>20</v>
       </c>
-      <c r="F50" s="301">
-        <f t="shared" ref="F50" si="15">G50+H50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="303">
+      <c r="F50" s="251">
+        <f t="shared" ref="F50" si="22">G50+H50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="253">
         <f>DATA!I41</f>
         <v>0</v>
       </c>
-      <c r="H50" s="304">
+      <c r="H50" s="254">
         <f>DATA!J41</f>
         <v>0</v>
       </c>
-      <c r="I50" s="305">
-        <f>ROUND(IF(D50=0,0,G50/D50),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="306">
-        <f>ROUND(IF(E50=0,0,H50/E50),2)</f>
+      <c r="I50" s="255">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="256">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="279">
+      <c r="B51" s="296"/>
+      <c r="C51" s="296"/>
+      <c r="D51" s="239">
         <f>SUM(D38,D41,D44,D45,D46)</f>
         <v>30</v>
       </c>
-      <c r="E51" s="280">
-        <f t="shared" ref="E51:H51" si="16">SUM(E38,E41,E44,E45,E46)</f>
+      <c r="E51" s="240">
+        <f t="shared" ref="E51:H51" si="23">SUM(E38,E41,E44,E45,E46)</f>
         <v>175</v>
       </c>
-      <c r="F51" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="281">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="282">
-        <f t="shared" si="16"/>
+      <c r="F51" s="239">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="241">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="242">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="298"/>
+      <c r="C52" s="299"/>
       <c r="D52" s="41">
         <f>D18+D31+D37+D51</f>
         <v>401</v>
       </c>
       <c r="E52" s="31">
-        <f t="shared" ref="E52:H52" si="17">E18+E31+E37+E51</f>
+        <f t="shared" ref="E52:H52" si="24">E18+E31+E37+E51</f>
         <v>335</v>
       </c>
       <c r="F52" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="G52" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H52" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>

--- a/WF.EnrolleeApplication.App/WF.EnrolleeApplication.App/doc/Templates/Информация о ходе приема.xlsx
+++ b/WF.EnrolleeApplication.App/WF.EnrolleeApplication.App/doc/Templates/Информация о ходе приема.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Барановичский государственный университет\АИС Абитуриент\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\WF.EnrolleeApplication\WF.EnrolleeApplication.App\WF.EnrolleeApplication.App\doc\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4124,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4133,8 +4133,9 @@
     <col min="1" max="1" width="44.140625" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="44" customWidth="1"/>
     <col min="3" max="3" width="120.7109375" style="44" customWidth="1"/>
-    <col min="4" max="12" width="4.7109375" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="44"/>
+    <col min="4" max="12" width="6.7109375" style="44" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -4194,13 +4195,13 @@
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="278">
         <f ca="1">TODAY()</f>
-        <v>43296</v>
+        <v>43301</v>
       </c>
       <c r="H4" s="279"/>
       <c r="I4" s="279"/>
       <c r="J4" s="281">
         <f ca="1">NOW()</f>
-        <v>43296.521391203707</v>
+        <v>43301.729181249997</v>
       </c>
       <c r="K4" s="281"/>
       <c r="L4" s="282"/>
@@ -4635,7 +4636,7 @@
         <v>105</v>
       </c>
       <c r="E16" s="111">
-        <f t="shared" ref="E16:L16" si="14">SUM(E10,E13,E14,E15)</f>
+        <f t="shared" ref="E16:K16" si="14">SUM(E10,E13,E14,E15)</f>
         <v>8</v>
       </c>
       <c r="F16" s="111">
@@ -5209,7 +5210,7 @@
         <v>146</v>
       </c>
       <c r="E28" s="76">
-        <f t="shared" ref="E28:L28" si="22">SUM(E20,E27,E25,E26)</f>
+        <f t="shared" ref="E28:K28" si="22">SUM(E20,E27,E25,E26)</f>
         <v>0</v>
       </c>
       <c r="F28" s="77">
@@ -5609,7 +5610,7 @@
         <v>133</v>
       </c>
       <c r="E37" s="76">
-        <f t="shared" ref="E37:L37" si="28">SUM(E32,E35,E36)</f>
+        <f t="shared" ref="E37:K37" si="28">SUM(E32,E35,E36)</f>
         <v>0</v>
       </c>
       <c r="F37" s="77">
@@ -6067,7 +6068,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="138">
-        <f t="shared" ref="E47:L47" si="34">SUM(E41,E44)</f>
+        <f t="shared" ref="E47:K47" si="34">SUM(E41,E44)</f>
         <v>0</v>
       </c>
       <c r="F47" s="139">
@@ -6456,7 +6457,7 @@
         <v>84</v>
       </c>
       <c r="E58" s="76">
-        <f t="shared" ref="E58:L58" si="41">SUM(E54:E57)</f>
+        <f t="shared" ref="E58:K58" si="41">SUM(E54:E57)</f>
         <v>0</v>
       </c>
       <c r="F58" s="77">
@@ -6798,7 +6799,7 @@
         <v>63</v>
       </c>
       <c r="E66" s="76">
-        <f t="shared" ref="E66:L66" si="47">SUM(E62,E65)</f>
+        <f t="shared" ref="E66:K66" si="47">SUM(E62,E65)</f>
         <v>0</v>
       </c>
       <c r="F66" s="77">
@@ -7314,7 +7315,7 @@
         <v>125</v>
       </c>
       <c r="E77" s="138">
-        <f t="shared" ref="E77:L77" si="60">SUM(E70:E72)</f>
+        <f t="shared" ref="E77:K77" si="60">SUM(E70:E72)</f>
         <v>0</v>
       </c>
       <c r="F77" s="139">
@@ -7440,12 +7441,6 @@
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="J60:L60"/>
     <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:F68"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="M68:M69"/>
@@ -7455,26 +7450,34 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:F68"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="M52:M53"/>
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="N60:N61"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="J39:L39"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="A28:C28"/>
@@ -7490,18 +7493,16 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -7595,12 +7596,12 @@
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="303">
         <f ca="1">NOW()</f>
-        <v>43296.521391203707</v>
+        <v>43301.729181249997</v>
       </c>
       <c r="H4" s="304"/>
       <c r="I4" s="305">
         <f ca="1">NOW()</f>
-        <v>43296.521391203707</v>
+        <v>43301.729181249997</v>
       </c>
       <c r="J4" s="306"/>
     </row>
